--- a/data/toothpaste.xlsx
+++ b/data/toothpaste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FAD757D-2E84-4B7E-A109-453EDF9962A5}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E94A568-1709-4EDC-B2BD-94536E3816EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="ToothbrushStudy_Data" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
   <si>
     <t>Brush</t>
   </si>
@@ -217,12 +218,6 @@
   </si>
   <si>
     <t>Observations</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>effects</t>
   </si>
   <si>
     <t>=</t>
@@ -1098,15 +1093,126 @@
   <si>
     <t>Toothpaste Brand</t>
   </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ij</t>
+    </r>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Mean of 3 values</t>
+  </si>
+  <si>
+    <t>free to vary</t>
+  </si>
+  <si>
+    <t>Depends on</t>
+  </si>
+  <si>
+    <t>the other 2</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>3 x 10 - (a+b)</t>
+  </si>
+  <si>
+    <t>Brush Means</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Treatment Factor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1418,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1500,7 +1627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1876,6 +2003,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1922,7 +2098,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2001,9 +2177,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="39" fontId="0" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2064,53 +2237,166 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2121,36 +2407,23 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2840,15 +3113,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:T18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="4" width="7.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
     <col min="6" max="12" width="7.5703125" style="1" customWidth="1"/>
@@ -2856,18 +3129,25 @@
     <col min="14" max="14" width="6.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="20" width="7.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K1" s="83"/>
+      <c r="L1" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+    </row>
+    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
@@ -2880,20 +3160,44 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="L2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="82" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X2" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>19.12</v>
       </c>
@@ -2906,24 +3210,55 @@
       <c r="E3" s="1">
         <v>24.39</v>
       </c>
-      <c r="H3" s="1">
-        <f>AVERAGE(B$3:B$8)</f>
+      <c r="G3" s="89">
+        <f>AVERAGE($B$13:$E$18)</f>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="H3" s="90">
+        <f t="shared" ref="H3:J8" si="0">AVERAGE($B$13:$E$18)</f>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I3" s="90">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="J3" s="91">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="84">
+        <f t="shared" ref="L3:O8" si="1">AVERAGE(B$3:B$8)</f>
         <v>23.093333333333334</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I8" si="0">AVERAGE(C$3:C$8)</f>
+      <c r="M3" s="84">
+        <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J8" si="1">AVERAGE(D$3:D$8)</f>
+      <c r="N3" s="84">
+        <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K8" si="2">AVERAGE(E$3:E$8)</f>
+      <c r="O3" s="87">
+        <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="24">
+        <f>SUMSQ(G13:J18)</f>
+        <v>12437.430104166664</v>
+      </c>
+      <c r="AA3" s="24">
+        <f>Z3/Y3</f>
+        <v>12437.430104166664</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>24.21</v>
       </c>
@@ -2936,24 +3271,59 @@
       <c r="E4" s="1">
         <v>21.45</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H8" si="3">AVERAGE(B$3:B$8)</f>
+      <c r="G4" s="92">
+        <f t="shared" ref="G4:G8" si="2">AVERAGE($B$13:$E$18)</f>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="J4" s="87">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="85">
+        <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
+      <c r="M4" s="85">
+        <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="85">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" si="2"/>
+      <c r="O4" s="87">
+        <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="24">
+        <f>SUMSQ(L13:O18)</f>
+        <v>86.308245833333544</v>
+      </c>
+      <c r="AA4" s="24">
+        <f t="shared" ref="AA4:AA5" si="3">Z4/Y4</f>
+        <v>28.769415277777849</v>
+      </c>
+      <c r="AB4" s="24">
+        <f>AA4/AA5</f>
+        <v>3.8216608725476551</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>26.88</v>
       </c>
@@ -2966,24 +3336,55 @@
       <c r="E5" s="1">
         <v>32.74</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
+      <c r="G5" s="92">
+        <f t="shared" si="2"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="J5" s="87">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="85">
+        <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
+      <c r="M5" s="85">
+        <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="85">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
+      <c r="O5" s="87">
+        <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="24">
+        <f>SUMSQ(Q13:T18)</f>
+        <v>150.55975000000004</v>
+      </c>
+      <c r="AA5" s="24">
+        <f t="shared" si="3"/>
+        <v>7.5279875000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>21.6</v>
       </c>
@@ -2996,24 +3397,51 @@
       <c r="E6" s="1">
         <v>24.21</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
+      <c r="G6" s="92">
+        <f t="shared" si="2"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="J6" s="87">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="85">
+        <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
+      <c r="M6" s="85">
+        <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="J6" s="1">
+      <c r="N6" s="85">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
+      <c r="O6" s="87">
+        <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="24">
+        <f>SUMSQ(B3:E8)</f>
+        <v>12674.298100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>23.4</v>
       </c>
@@ -3026,24 +3454,41 @@
       <c r="E7" s="1">
         <v>25.67</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
+      <c r="G7" s="92">
+        <f t="shared" si="2"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I7" s="38">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="J7" s="87">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="85">
+        <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
+      <c r="M7" s="85">
+        <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="J7" s="1">
+      <c r="N7" s="85">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
+      <c r="O7" s="87">
+        <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>23.35</v>
       </c>
@@ -3056,40 +3501,59 @@
       <c r="E8" s="1">
         <v>23.42</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
+      <c r="G8" s="93">
+        <f t="shared" si="2"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="H8" s="94">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I8" s="94">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="J8" s="88">
+        <f t="shared" si="0"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="86">
+        <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
+      <c r="M8" s="86">
+        <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="J8" s="1">
+      <c r="N8" s="86">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
+      <c r="O8" s="88">
+        <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z8" s="97"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z10" s="1">
+        <f>12437.43+86.31+150.56</f>
+        <v>12674.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L11" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
@@ -3102,12 +3566,12 @@
       <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
       <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
@@ -3120,14 +3584,14 @@
       <c r="O12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="59" t="s">
+      <c r="Q12" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>19.12</v>
       </c>
@@ -3140,58 +3604,58 @@
       <c r="E13" s="18">
         <v>24.39</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <f>AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="40">
         <f t="shared" ref="H13:J18" si="4">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="41">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K13" s="18"/>
-      <c r="L13" s="49">
-        <f>H3-$H$13</f>
+      <c r="L13" s="75">
+        <f t="shared" ref="L13:O18" si="5">L3-$H$13</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M13" s="49">
-        <f t="shared" ref="M13:O13" si="5">I3-$H$13</f>
+      <c r="M13" s="75">
+        <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="75">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="75">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="36">
+      <c r="Q13" s="70">
         <f>B13-(G13+L13)</f>
         <v>-3.9733333333333327</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="70">
         <f t="shared" ref="R13:R18" si="6">C13-(H13+M13)</f>
         <v>-1.4166666666666714</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="70">
         <f t="shared" ref="S13:S18" si="7">D13-(I13+N13)</f>
         <v>2.9049999999999976</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="70">
         <f t="shared" ref="T13:T18" si="8">E13-(J13+O13)</f>
         <v>-0.92333333333334267</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>24.21</v>
       </c>
@@ -3204,58 +3668,62 @@
       <c r="E14" s="18">
         <v>21.45</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f t="shared" ref="G14:G18" si="9">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K14" s="18"/>
-      <c r="L14" s="51">
-        <f t="shared" ref="L14:L18" si="10">H4-$H$13</f>
+      <c r="L14" s="95">
+        <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M14" s="51">
-        <f t="shared" ref="M14:M18" si="11">I4-$H$13</f>
+      <c r="M14" s="95">
+        <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N14" s="51">
-        <f t="shared" ref="N14:N18" si="12">J4-$H$13</f>
+      <c r="N14" s="95">
+        <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O14" s="51">
-        <f t="shared" ref="O14:O18" si="13">K4-$H$13</f>
+      <c r="O14" s="95">
+        <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="36">
-        <f t="shared" ref="Q14:Q18" si="14">B14-(G14+L14)</f>
+      <c r="Q14" s="70">
+        <f t="shared" ref="Q14:Q18" si="10">B14-(G14+L14)</f>
         <v>1.1166666666666671</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="70">
         <f t="shared" si="6"/>
         <v>2.3333333333329875E-2</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="70">
         <f t="shared" si="7"/>
         <v>0.63499999999999801</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="70">
         <f t="shared" si="8"/>
         <v>-3.8633333333333439</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" s="1">
+        <f>_xlfn.VAR.S(L3:O3)</f>
+        <v>4.7949025462963064</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>26.88</v>
       </c>
@@ -3269,64 +3737,80 @@
         <v>32.74</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="45">
+        <v>59</v>
+      </c>
+      <c r="G15" s="44">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="43">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="51">
+        <v>60</v>
+      </c>
+      <c r="L15" s="95">
+        <f t="shared" si="5"/>
+        <v>0.32875000000000298</v>
+      </c>
+      <c r="M15" s="95">
+        <f t="shared" si="5"/>
+        <v>-2.7879166666666606</v>
+      </c>
+      <c r="N15" s="95">
+        <f t="shared" si="5"/>
+        <v>-8.9583333333330017E-2</v>
+      </c>
+      <c r="O15" s="95">
+        <f t="shared" si="5"/>
+        <v>2.5487500000000125</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="70">
         <f t="shared" si="10"/>
-        <v>0.32875000000000298</v>
-      </c>
-      <c r="M15" s="51">
-        <f t="shared" si="11"/>
-        <v>-2.7879166666666606</v>
-      </c>
-      <c r="N15" s="51">
-        <f t="shared" si="12"/>
-        <v>-8.9583333333330017E-2</v>
-      </c>
-      <c r="O15" s="51">
-        <f t="shared" si="13"/>
-        <v>2.5487500000000125</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="36">
-        <f t="shared" si="14"/>
         <v>3.7866666666666653</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="70">
         <f t="shared" si="6"/>
         <v>-0.10666666666666913</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="70">
         <f t="shared" si="7"/>
         <v>-3.6850000000000023</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="70">
         <f t="shared" si="8"/>
         <v>7.4266666666666588</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V15" s="1">
+        <f>_xlfn.VAR.S(Q13:Q18)</f>
+        <v>6.7526266666666626</v>
+      </c>
+      <c r="W15" s="1">
+        <f>_xlfn.VAR.S(R13:R18)</f>
+        <v>3.0156266666666656</v>
+      </c>
+      <c r="X15" s="1">
+        <f>_xlfn.VAR.S(S13:S18)</f>
+        <v>5.1711900000000011</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>_xlfn.VAR.S(T13:T18)</f>
+        <v>15.172506666666672</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>21.6</v>
       </c>
@@ -3339,53 +3823,53 @@
       <c r="E16" s="18">
         <v>24.21</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K16" s="18"/>
-      <c r="L16" s="51">
+      <c r="L16" s="95">
+        <f t="shared" si="5"/>
+        <v>0.32875000000000298</v>
+      </c>
+      <c r="M16" s="95">
+        <f t="shared" si="5"/>
+        <v>-2.7879166666666606</v>
+      </c>
+      <c r="N16" s="95">
+        <f t="shared" si="5"/>
+        <v>-8.9583333333330017E-2</v>
+      </c>
+      <c r="O16" s="95">
+        <f t="shared" si="5"/>
+        <v>2.5487500000000125</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="70">
         <f t="shared" si="10"/>
-        <v>0.32875000000000298</v>
-      </c>
-      <c r="M16" s="51">
-        <f t="shared" si="11"/>
-        <v>-2.7879166666666606</v>
-      </c>
-      <c r="N16" s="51">
-        <f t="shared" si="12"/>
-        <v>-8.9583333333330017E-2</v>
-      </c>
-      <c r="O16" s="51">
-        <f t="shared" si="13"/>
-        <v>2.5487500000000125</v>
-      </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="36">
-        <f t="shared" si="14"/>
         <v>-1.4933333333333323</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="70">
         <f t="shared" si="6"/>
         <v>2.1133333333333297</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="70">
         <f t="shared" si="7"/>
         <v>0.41499999999999915</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="70">
         <f t="shared" si="8"/>
         <v>-1.1033333333333424</v>
       </c>
@@ -3403,53 +3887,53 @@
       <c r="E17" s="18">
         <v>25.67</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="38">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K17" s="18"/>
-      <c r="L17" s="51">
+      <c r="L17" s="95">
+        <f t="shared" si="5"/>
+        <v>0.32875000000000298</v>
+      </c>
+      <c r="M17" s="95">
+        <f t="shared" si="5"/>
+        <v>-2.7879166666666606</v>
+      </c>
+      <c r="N17" s="95">
+        <f t="shared" si="5"/>
+        <v>-8.9583333333330017E-2</v>
+      </c>
+      <c r="O17" s="95">
+        <f t="shared" si="5"/>
+        <v>2.5487500000000125</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="70">
         <f t="shared" si="10"/>
-        <v>0.32875000000000298</v>
-      </c>
-      <c r="M17" s="51">
-        <f t="shared" si="11"/>
-        <v>-2.7879166666666606</v>
-      </c>
-      <c r="N17" s="51">
-        <f t="shared" si="12"/>
-        <v>-8.9583333333330017E-2</v>
-      </c>
-      <c r="O17" s="51">
-        <f t="shared" si="13"/>
-        <v>2.5487500000000125</v>
-      </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="36">
-        <f t="shared" si="14"/>
         <v>0.30666666666666487</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="70">
         <f t="shared" si="6"/>
         <v>-2.3566666666666691</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="70">
         <f t="shared" si="7"/>
         <v>1.134999999999998</v>
       </c>
-      <c r="T17" s="36">
+      <c r="T17" s="70">
         <f t="shared" si="8"/>
         <v>0.35666666666665847</v>
       </c>
@@ -3467,53 +3951,53 @@
       <c r="E18" s="18">
         <v>23.42</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="45">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="46">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="46">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="47">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K18" s="18"/>
-      <c r="L18" s="52">
+      <c r="L18" s="96">
+        <f t="shared" si="5"/>
+        <v>0.32875000000000298</v>
+      </c>
+      <c r="M18" s="96">
+        <f t="shared" si="5"/>
+        <v>-2.7879166666666606</v>
+      </c>
+      <c r="N18" s="96">
+        <f t="shared" si="5"/>
+        <v>-8.9583333333330017E-2</v>
+      </c>
+      <c r="O18" s="96">
+        <f t="shared" si="5"/>
+        <v>2.5487500000000125</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="70">
         <f t="shared" si="10"/>
-        <v>0.32875000000000298</v>
-      </c>
-      <c r="M18" s="52">
-        <f t="shared" si="11"/>
-        <v>-2.7879166666666606</v>
-      </c>
-      <c r="N18" s="52">
-        <f t="shared" si="12"/>
-        <v>-8.9583333333330017E-2</v>
-      </c>
-      <c r="O18" s="52">
-        <f t="shared" si="13"/>
-        <v>2.5487500000000125</v>
-      </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="36">
-        <f t="shared" si="14"/>
         <v>0.25666666666666771</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="70">
         <f t="shared" si="6"/>
         <v>1.7433333333333287</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="70">
         <f t="shared" si="7"/>
         <v>-1.4050000000000011</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="70">
         <f t="shared" si="8"/>
         <v>-1.8933333333333415</v>
       </c>
@@ -3522,12 +4006,12 @@
       <c r="C23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
+      <c r="L23" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
@@ -3542,12 +4026,12 @@
       <c r="E24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
       <c r="L24" s="18" t="s">
         <v>4</v>
       </c>
@@ -3560,14 +4044,14 @@
       <c r="O24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="59" t="s">
+      <c r="Q24" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-    </row>
-    <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>19.12</v>
       </c>
@@ -3580,21 +4064,21 @@
       <c r="E25" s="1">
         <v>24.39</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-    </row>
-    <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30">
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="69">
         <v>24.21</v>
       </c>
       <c r="C26" s="1">
@@ -3606,26 +4090,20 @@
       <c r="E26" s="1">
         <v>21.45</v>
       </c>
-      <c r="G26" s="43">
-        <v>22.764583333333331</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="44"/>
-      <c r="L26" s="50">
-        <v>0.32875000000000298</v>
-      </c>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="Q26" s="38">
-        <v>1.1166666666666671</v>
-      </c>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
       <c r="Y26" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -3642,28 +4120,28 @@
         <v>32.74</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="44"/>
+        <v>59</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>21.6</v>
       </c>
@@ -3676,24 +4154,24 @@
       <c r="E28" s="1">
         <v>24.21</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="44"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G28" s="44"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="43"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>23.4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="30">
         <v>17.62</v>
       </c>
       <c r="D29" s="1">
@@ -3702,18 +4180,27 @@
       <c r="E29" s="1">
         <v>25.67</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="44"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="72">
+        <f>H17</f>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="43"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="71">
+        <f>M17</f>
+        <v>-2.7879166666666606</v>
+      </c>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="73">
+        <f>R17</f>
+        <v>-2.3566666666666691</v>
+      </c>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
@@ -3728,31 +4215,34 @@
       <c r="E30" s="1">
         <v>23.42</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L33" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>4</v>
       </c>
@@ -3765,12 +4255,12 @@
       <c r="E34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
       <c r="L34" s="18" t="s">
         <v>4</v>
       </c>
@@ -3783,239 +4273,648 @@
       <c r="O34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="59" t="s">
+      <c r="Q34" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
     </row>
     <row r="35" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="E35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
+      <c r="L35" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="L35" s="70" t="s">
+      <c r="N35" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="70" t="s">
+      <c r="O35" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="70" t="s">
+      <c r="Q35" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q35" s="32" t="s">
-        <v>93</v>
-      </c>
       <c r="R35" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T35" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="E36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="107"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
       <c r="Q36" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R36" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S36" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T36" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="E37" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>75</v>
-      </c>
       <c r="F37" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
+        <v>59</v>
+      </c>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
       <c r="K37" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
+        <v>60</v>
+      </c>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
       <c r="P37" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q37" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R37" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S37" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T37" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="E38" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
       <c r="Q38" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S38" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T38" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="E39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="Q39" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R39" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S39" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="T39" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="C40" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="Q39" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="R39" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="S39" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="T39" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
+      <c r="D40" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="E40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="G40" s="108"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="110"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="Q40" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="R40" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="S40" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="T40" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+    </row>
+    <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="L45" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="100"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="100"/>
+    </row>
+    <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="104"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+    </row>
+    <row r="47" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="107"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+    </row>
+    <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
+    </row>
+    <row r="49" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="107"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+    </row>
+    <row r="50" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="107"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+    </row>
+    <row r="51" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+    </row>
+    <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B53" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="69"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="Q40" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="R40" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="S40" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="T40" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q53" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="R53" s="99"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="68"/>
+      <c r="C59" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="G59" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="L59" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="Q59" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="R59" s="100"/>
+      <c r="S59" s="100"/>
+      <c r="T59" s="100"/>
+    </row>
+    <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="57"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="111"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+    </row>
+    <row r="61" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="57"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="112"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="112"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="76"/>
+      <c r="T61" s="76"/>
+    </row>
+    <row r="62" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="57"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="112"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="112"/>
+      <c r="P62" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="76"/>
+      <c r="T62" s="76"/>
+    </row>
+    <row r="63" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="57"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="112"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="112"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="76"/>
+      <c r="T63" s="76"/>
+    </row>
+    <row r="64" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="57"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="L64" s="112"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="76"/>
+      <c r="T64" s="76"/>
+    </row>
+    <row r="65" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="57"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="122"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="76"/>
+      <c r="T65" s="76"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+    </row>
+    <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B67" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="99"/>
+      <c r="P67" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q67" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="R67" s="99"/>
+      <c r="S67" s="99"/>
+      <c r="T67" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="L33:O33"/>
+  <mergeCells count="40">
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="Q34:T34"/>
     <mergeCell ref="G35:J40"/>
@@ -4023,12 +4922,27 @@
     <mergeCell ref="M35:M40"/>
     <mergeCell ref="N35:N40"/>
     <mergeCell ref="O35:O40"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="G46:J51"/>
+    <mergeCell ref="L46:L51"/>
+    <mergeCell ref="M46:M51"/>
+    <mergeCell ref="N46:N51"/>
+    <mergeCell ref="O46:O51"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4433,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:AY51"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView topLeftCell="P22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37:AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,7 +5488,7 @@
       <c r="S7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="74" t="s">
+      <c r="U7" s="116" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="9" t="s">
@@ -4586,7 +5500,7 @@
       <c r="X7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="74" t="s">
+      <c r="Z7" s="116" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -4618,7 +5532,7 @@
       <c r="S8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="74"/>
+      <c r="U8" s="116"/>
       <c r="V8" s="15" t="s">
         <v>26</v>
       </c>
@@ -4628,7 +5542,7 @@
       <c r="X8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="74"/>
+      <c r="Z8" s="116"/>
       <c r="AA8" s="15" t="s">
         <v>26</v>
       </c>
@@ -4658,7 +5572,7 @@
       <c r="S9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="75" t="s">
+      <c r="U9" s="117" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="12" t="s">
@@ -4670,7 +5584,7 @@
       <c r="X9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="75" t="s">
+      <c r="Z9" s="117" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="12" t="s">
@@ -4693,7 +5607,7 @@
       <c r="S10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="75"/>
+      <c r="U10" s="117"/>
       <c r="V10" s="15" t="s">
         <v>28</v>
       </c>
@@ -4703,7 +5617,7 @@
       <c r="X10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="75"/>
+      <c r="Z10" s="117"/>
       <c r="AA10" s="15" t="s">
         <v>28</v>
       </c>
@@ -4819,24 +5733,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AH26" s="73" t="s">
+      <c r="AB26" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC26" s="115"/>
+      <c r="AD26" s="115"/>
+      <c r="AE26" s="115"/>
+      <c r="AH26" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="73"/>
-      <c r="AN26" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
+      <c r="AI26" s="115"/>
+      <c r="AJ26" s="115"/>
+      <c r="AK26" s="115"/>
+      <c r="AN26" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="115"/>
+      <c r="AQ26" s="115"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -4863,22 +5777,22 @@
       <c r="P27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="53">
         <v>19.12</v>
       </c>
-      <c r="R27" s="55">
+      <c r="R27" s="54">
         <v>24.21</v>
       </c>
-      <c r="S27" s="55">
+      <c r="S27" s="54">
         <v>26.88</v>
       </c>
-      <c r="T27" s="55">
+      <c r="T27" s="54">
         <v>21.6</v>
       </c>
-      <c r="U27" s="55">
+      <c r="U27" s="54">
         <v>23.4</v>
       </c>
-      <c r="V27" s="56">
+      <c r="V27" s="55">
         <v>23.35</v>
       </c>
       <c r="AB27" s="18" t="s">
@@ -4935,22 +5849,22 @@
       <c r="P28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="54">
+      <c r="Q28" s="53">
         <v>18.559999999999999</v>
       </c>
-      <c r="R28" s="55">
+      <c r="R28" s="54">
         <v>20</v>
       </c>
-      <c r="S28" s="55">
+      <c r="S28" s="54">
         <v>19.87</v>
       </c>
-      <c r="T28" s="55">
+      <c r="T28" s="54">
         <v>22.09</v>
       </c>
-      <c r="U28" s="55">
+      <c r="U28" s="54">
         <v>17.62</v>
       </c>
-      <c r="V28" s="56">
+      <c r="V28" s="55">
         <v>21.72</v>
       </c>
       <c r="AB28" s="9">
@@ -4965,8 +5879,8 @@
       <c r="AE28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="74" t="s">
-        <v>119</v>
+      <c r="AG28" s="116" t="s">
+        <v>117</v>
       </c>
       <c r="AH28" s="9">
         <v>19.12</v>
@@ -4980,8 +5894,8 @@
       <c r="AK28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="74" t="s">
-        <v>119</v>
+      <c r="AM28" s="116" t="s">
+        <v>117</v>
       </c>
       <c r="AN28" s="9">
         <v>19.12</v>
@@ -5021,22 +5935,22 @@
       <c r="P29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="54">
+      <c r="Q29" s="53">
         <v>25.58</v>
       </c>
-      <c r="R29" s="55">
+      <c r="R29" s="54">
         <v>23.31</v>
       </c>
-      <c r="S29" s="55">
+      <c r="S29" s="54">
         <v>18.989999999999998</v>
       </c>
-      <c r="T29" s="55">
+      <c r="T29" s="54">
         <v>23.09</v>
       </c>
-      <c r="U29" s="55">
+      <c r="U29" s="54">
         <v>23.81</v>
       </c>
-      <c r="V29" s="56">
+      <c r="V29" s="55">
         <v>21.27</v>
       </c>
       <c r="AB29" s="12">
@@ -5051,7 +5965,7 @@
       <c r="AE29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="74"/>
+      <c r="AG29" s="116"/>
       <c r="AH29" s="12">
         <v>24.21</v>
       </c>
@@ -5064,7 +5978,7 @@
       <c r="AK29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="74"/>
+      <c r="AM29" s="116"/>
       <c r="AN29" s="12">
         <v>24.21</v>
       </c>
@@ -5103,22 +6017,22 @@
       <c r="P30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="53">
         <v>24.39</v>
       </c>
-      <c r="R30" s="55">
+      <c r="R30" s="54">
         <v>21.45</v>
       </c>
-      <c r="S30" s="55">
+      <c r="S30" s="54">
         <v>32.74</v>
       </c>
-      <c r="T30" s="55">
+      <c r="T30" s="54">
         <v>24.21</v>
       </c>
-      <c r="U30" s="55">
+      <c r="U30" s="54">
         <v>25.67</v>
       </c>
-      <c r="V30" s="56">
+      <c r="V30" s="55">
         <v>23.42</v>
       </c>
       <c r="AB30" s="12">
@@ -5133,7 +6047,7 @@
       <c r="AE30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="74"/>
+      <c r="AG30" s="116"/>
       <c r="AH30" s="12">
         <v>26.88</v>
       </c>
@@ -5146,7 +6060,7 @@
       <c r="AK30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="74"/>
+      <c r="AM30" s="116"/>
       <c r="AN30" s="15">
         <v>26.88</v>
       </c>
@@ -5194,8 +6108,8 @@
       <c r="AE31" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="74" t="s">
-        <v>118</v>
+      <c r="AG31" s="116" t="s">
+        <v>116</v>
       </c>
       <c r="AH31" s="9">
         <v>21.6</v>
@@ -5209,8 +6123,8 @@
       <c r="AK31" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="74" t="s">
-        <v>118</v>
+      <c r="AM31" s="116" t="s">
+        <v>116</v>
       </c>
       <c r="AN31" s="12">
         <v>21.6</v>
@@ -5259,7 +6173,7 @@
       <c r="AE32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="74"/>
+      <c r="AG32" s="116"/>
       <c r="AH32" s="12">
         <v>23.4</v>
       </c>
@@ -5272,7 +6186,7 @@
       <c r="AK32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="74"/>
+      <c r="AM32" s="116"/>
       <c r="AN32" s="12">
         <v>23.4</v>
       </c>
@@ -5320,7 +6234,7 @@
       <c r="AE33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="74"/>
+      <c r="AG33" s="116"/>
       <c r="AH33" s="15">
         <v>23.35</v>
       </c>
@@ -5333,7 +6247,7 @@
       <c r="AK33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="74"/>
+      <c r="AM33" s="116"/>
       <c r="AN33" s="15">
         <v>23.35</v>
       </c>
@@ -5430,7 +6344,7 @@
       <c r="I37">
         <v>22.09</v>
       </c>
-      <c r="K37" s="54">
+      <c r="K37" s="53">
         <v>23.09</v>
       </c>
       <c r="L37" s="23">
@@ -5439,7 +6353,7 @@
       <c r="M37" s="23">
         <v>22.68</v>
       </c>
-      <c r="N37" s="56">
+      <c r="N37" s="55">
         <v>25.31</v>
       </c>
       <c r="AB37" s="9">
@@ -5454,7 +6368,7 @@
       <c r="AE37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="74" t="s">
+      <c r="AG37" s="116" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="9">
@@ -5469,7 +6383,7 @@
       <c r="AK37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="75" t="s">
+      <c r="AM37" s="117" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="9">
@@ -5507,7 +6421,7 @@
       <c r="AE38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="74"/>
+      <c r="AG38" s="116"/>
       <c r="AH38" s="12">
         <v>24.21</v>
       </c>
@@ -5520,7 +6434,7 @@
       <c r="AK38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="75"/>
+      <c r="AM38" s="117"/>
       <c r="AN38" s="12">
         <v>24.21</v>
       </c>
@@ -5556,7 +6470,7 @@
       <c r="AE39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="74"/>
+      <c r="AG39" s="116"/>
       <c r="AH39" s="12">
         <v>26.88</v>
       </c>
@@ -5569,7 +6483,7 @@
       <c r="AK39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="75"/>
+      <c r="AM39" s="117"/>
       <c r="AN39" s="15">
         <v>26.88</v>
       </c>
@@ -5605,7 +6519,7 @@
       <c r="AE40" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="74" t="s">
+      <c r="AG40" s="116" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="9">
@@ -5620,7 +6534,7 @@
       <c r="AK40" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="75" t="s">
+      <c r="AM40" s="117" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="12">
@@ -5658,7 +6572,7 @@
       <c r="AE41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="74"/>
+      <c r="AG41" s="116"/>
       <c r="AH41" s="12">
         <v>23.4</v>
       </c>
@@ -5671,7 +6585,7 @@
       <c r="AK41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="75"/>
+      <c r="AM41" s="117"/>
       <c r="AN41" s="12">
         <v>23.4</v>
       </c>
@@ -5707,7 +6621,7 @@
       <c r="AE42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="74"/>
+      <c r="AG42" s="116"/>
       <c r="AH42" s="15">
         <v>23.35</v>
       </c>
@@ -5720,7 +6634,7 @@
       <c r="AK42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="75"/>
+      <c r="AM42" s="117"/>
       <c r="AN42" s="15">
         <v>23.35</v>
       </c>
@@ -6247,7 +7161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6260,192 +7174,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="G2" s="81" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="G2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="L2" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="Q2" s="86" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="L2" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="Q2" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="V2" s="58" t="s">
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="V2" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="79"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="60"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="53"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="79"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="60"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="80"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="61"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="79"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="60"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="53"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="79"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="60"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="80"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="61"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6458,4 +7372,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B883F1-1F0C-4524-B73F-E7D1A0CFC916}">
+  <dimension ref="B2:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="R2" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+    </row>
+    <row r="4" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R4" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="79"/>
+      <c r="V4" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="78"/>
+      <c r="X4" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/toothpaste.xlsx
+++ b/data/toothpaste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E94A568-1709-4EDC-B2BD-94536E3816EB}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6463807C-F525-45CC-B7BD-FA872EB547C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2098,7 +2098,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2253,9 +2253,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2305,7 +2302,6 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2347,16 +2343,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2386,45 +2410,20 @@
     <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2667,7 +2666,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3115,19 +3114,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="20" width="7.5703125" style="1" customWidth="1"/>
     <col min="21" max="23" width="9.140625" style="1"/>
     <col min="24" max="24" width="13.5703125" style="1" customWidth="1"/>
@@ -3139,13 +3135,13 @@
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="98" t="s">
+      <c r="K1" s="81"/>
+      <c r="L1" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -3160,22 +3156,22 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="L2" s="62" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="L2" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="96" t="s">
         <v>2</v>
       </c>
       <c r="X2" s="56" t="s">
@@ -3210,36 +3206,36 @@
       <c r="E3" s="1">
         <v>24.39</v>
       </c>
-      <c r="G3" s="89">
+      <c r="G3" s="87">
         <f>AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="88">
         <f t="shared" ref="H3:J8" si="0">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="88">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="89">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K3" s="57"/>
-      <c r="L3" s="84">
+      <c r="L3" s="82">
         <f t="shared" ref="L3:O8" si="1">AVERAGE(B$3:B$8)</f>
         <v>23.093333333333334</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="82">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N3" s="84">
+      <c r="N3" s="82">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="85">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3271,7 +3267,7 @@
       <c r="E4" s="1">
         <v>21.45</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="90">
         <f t="shared" ref="G4:G8" si="2">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
@@ -3283,24 +3279,24 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="85">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K4" s="57"/>
-      <c r="L4" s="85">
+      <c r="L4" s="83">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="83">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="83">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="85">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3336,7 +3332,7 @@
       <c r="E5" s="1">
         <v>32.74</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="90">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
@@ -3348,24 +3344,24 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="85">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K5" s="57"/>
-      <c r="L5" s="85">
+      <c r="L5" s="83">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="83">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="83">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O5" s="87">
+      <c r="O5" s="85">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3397,7 +3393,7 @@
       <c r="E6" s="1">
         <v>24.21</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="90">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
@@ -3409,24 +3405,24 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="85">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K6" s="57"/>
-      <c r="L6" s="85">
+      <c r="L6" s="83">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="83">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="83">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="85">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3454,7 +3450,7 @@
       <c r="E7" s="1">
         <v>25.67</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="90">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
@@ -3466,24 +3462,24 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="85">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K7" s="57"/>
-      <c r="L7" s="85">
+      <c r="L7" s="83">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="83">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="83">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O7" s="87">
+      <c r="O7" s="85">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3501,40 +3497,40 @@
       <c r="E8" s="1">
         <v>23.42</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="91">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="92">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="92">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="86">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K8" s="57"/>
-      <c r="L8" s="86">
+      <c r="L8" s="84">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="84">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N8" s="86">
+      <c r="N8" s="84">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="86">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-      <c r="Z8" s="97"/>
+      <c r="Z8" s="95"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="Z10" s="1">
@@ -3546,12 +3542,12 @@
       <c r="C11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="98" t="s">
+      <c r="L11" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
@@ -3566,30 +3562,30 @@
       <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
       <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="114" t="s">
+      <c r="Q12" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
@@ -3621,36 +3617,36 @@
         <v>22.764583333333331</v>
       </c>
       <c r="K13" s="18"/>
-      <c r="L13" s="75">
+      <c r="L13" s="74">
         <f t="shared" ref="L13:O18" si="5">L3-$H$13</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M13" s="75">
+      <c r="M13" s="74">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N13" s="75">
+      <c r="N13" s="74">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O13" s="75">
+      <c r="O13" s="74">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="70">
+      <c r="Q13" s="69">
         <f>B13-(G13+L13)</f>
         <v>-3.9733333333333327</v>
       </c>
-      <c r="R13" s="70">
+      <c r="R13" s="69">
         <f t="shared" ref="R13:R18" si="6">C13-(H13+M13)</f>
         <v>-1.4166666666666714</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="69">
         <f t="shared" ref="S13:S18" si="7">D13-(I13+N13)</f>
         <v>2.9049999999999976</v>
       </c>
-      <c r="T13" s="70">
+      <c r="T13" s="69">
         <f t="shared" ref="T13:T18" si="8">E13-(J13+O13)</f>
         <v>-0.92333333333334267</v>
       </c>
@@ -3685,36 +3681,36 @@
         <v>22.764583333333331</v>
       </c>
       <c r="K14" s="18"/>
-      <c r="L14" s="95">
+      <c r="L14" s="93">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M14" s="95">
+      <c r="M14" s="93">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N14" s="95">
+      <c r="N14" s="93">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="93">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="70">
+      <c r="Q14" s="69">
         <f t="shared" ref="Q14:Q18" si="10">B14-(G14+L14)</f>
         <v>1.1166666666666671</v>
       </c>
-      <c r="R14" s="70">
+      <c r="R14" s="69">
         <f t="shared" si="6"/>
         <v>2.3333333333329875E-2</v>
       </c>
-      <c r="S14" s="70">
+      <c r="S14" s="69">
         <f t="shared" si="7"/>
         <v>0.63499999999999801</v>
       </c>
-      <c r="T14" s="70">
+      <c r="T14" s="69">
         <f t="shared" si="8"/>
         <v>-3.8633333333333439</v>
       </c>
@@ -3758,38 +3754,38 @@
       <c r="K15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="95">
+      <c r="L15" s="93">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M15" s="95">
+      <c r="M15" s="93">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N15" s="95">
+      <c r="N15" s="93">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O15" s="95">
+      <c r="O15" s="93">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="69">
         <f t="shared" si="10"/>
         <v>3.7866666666666653</v>
       </c>
-      <c r="R15" s="70">
+      <c r="R15" s="69">
         <f t="shared" si="6"/>
         <v>-0.10666666666666913</v>
       </c>
-      <c r="S15" s="70">
+      <c r="S15" s="69">
         <f t="shared" si="7"/>
         <v>-3.6850000000000023</v>
       </c>
-      <c r="T15" s="70">
+      <c r="T15" s="69">
         <f t="shared" si="8"/>
         <v>7.4266666666666588</v>
       </c>
@@ -3840,36 +3836,36 @@
         <v>22.764583333333331</v>
       </c>
       <c r="K16" s="18"/>
-      <c r="L16" s="95">
+      <c r="L16" s="93">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M16" s="95">
+      <c r="M16" s="93">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N16" s="93">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O16" s="93">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P16" s="18"/>
-      <c r="Q16" s="70">
+      <c r="Q16" s="69">
         <f t="shared" si="10"/>
         <v>-1.4933333333333323</v>
       </c>
-      <c r="R16" s="70">
+      <c r="R16" s="69">
         <f t="shared" si="6"/>
         <v>2.1133333333333297</v>
       </c>
-      <c r="S16" s="70">
+      <c r="S16" s="69">
         <f t="shared" si="7"/>
         <v>0.41499999999999915</v>
       </c>
-      <c r="T16" s="70">
+      <c r="T16" s="69">
         <f t="shared" si="8"/>
         <v>-1.1033333333333424</v>
       </c>
@@ -3904,36 +3900,36 @@
         <v>22.764583333333331</v>
       </c>
       <c r="K17" s="18"/>
-      <c r="L17" s="95">
+      <c r="L17" s="93">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M17" s="93">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N17" s="95">
+      <c r="N17" s="93">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O17" s="93">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P17" s="18"/>
-      <c r="Q17" s="70">
+      <c r="Q17" s="69">
         <f t="shared" si="10"/>
         <v>0.30666666666666487</v>
       </c>
-      <c r="R17" s="70">
+      <c r="R17" s="69">
         <f t="shared" si="6"/>
         <v>-2.3566666666666691</v>
       </c>
-      <c r="S17" s="70">
+      <c r="S17" s="69">
         <f t="shared" si="7"/>
         <v>1.134999999999998</v>
       </c>
-      <c r="T17" s="70">
+      <c r="T17" s="69">
         <f t="shared" si="8"/>
         <v>0.35666666666665847</v>
       </c>
@@ -3968,36 +3964,36 @@
         <v>22.764583333333331</v>
       </c>
       <c r="K18" s="18"/>
-      <c r="L18" s="96">
+      <c r="L18" s="94">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M18" s="96">
+      <c r="M18" s="94">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N18" s="96">
+      <c r="N18" s="94">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O18" s="96">
+      <c r="O18" s="94">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="70">
+      <c r="Q18" s="69">
         <f t="shared" si="10"/>
         <v>0.25666666666666771</v>
       </c>
-      <c r="R18" s="70">
+      <c r="R18" s="69">
         <f t="shared" si="6"/>
         <v>1.7433333333333287</v>
       </c>
-      <c r="S18" s="70">
+      <c r="S18" s="69">
         <f t="shared" si="7"/>
         <v>-1.4050000000000011</v>
       </c>
-      <c r="T18" s="70">
+      <c r="T18" s="69">
         <f t="shared" si="8"/>
         <v>-1.8933333333333415</v>
       </c>
@@ -4006,12 +4002,12 @@
       <c r="C23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="98" t="s">
+      <c r="L23" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
@@ -4026,12 +4022,12 @@
       <c r="E24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="100" t="s">
+      <c r="G24" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
       <c r="L24" s="18" t="s">
         <v>4</v>
       </c>
@@ -4044,12 +4040,12 @@
       <c r="O24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="114" t="s">
+      <c r="Q24" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
@@ -4078,7 +4074,7 @@
       <c r="T25" s="36"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="69">
+      <c r="B26" s="68">
         <v>24.21</v>
       </c>
       <c r="C26" s="1">
@@ -4181,21 +4177,21 @@
         <v>25.67</v>
       </c>
       <c r="G29" s="44"/>
-      <c r="H29" s="72">
+      <c r="H29" s="71">
         <f>H17</f>
         <v>22.764583333333331</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="43"/>
       <c r="L29" s="50"/>
-      <c r="M29" s="71">
+      <c r="M29" s="70">
         <f>M17</f>
         <v>-2.7879166666666606</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
       <c r="Q29" s="36"/>
-      <c r="R29" s="73">
+      <c r="R29" s="72">
         <f>R17</f>
         <v>-2.3566666666666691</v>
       </c>
@@ -4229,18 +4225,18 @@
       <c r="T30" s="36"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H32" s="74"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="98" t="s">
+      <c r="L33" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
@@ -4255,30 +4251,30 @@
       <c r="E34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="101" t="s">
+      <c r="G34" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
       <c r="L34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="114" t="s">
+      <c r="Q34" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
     </row>
     <row r="35" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
@@ -4293,22 +4289,22 @@
       <c r="E35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="102" t="s">
+      <c r="G35" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104"/>
-      <c r="L35" s="111" t="s">
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="112"/>
+      <c r="L35" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="111" t="s">
+      <c r="M35" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="111" t="s">
+      <c r="N35" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="111" t="s">
+      <c r="O35" s="105" t="s">
         <v>90</v>
       </c>
       <c r="Q35" s="32" t="s">
@@ -4337,14 +4333,14 @@
       <c r="E36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="107"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="115"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
       <c r="Q36" s="32" t="s">
         <v>92</v>
       </c>
@@ -4374,17 +4370,17 @@
       <c r="F37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="107"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="115"/>
       <c r="K37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
       <c r="P37" s="29" t="s">
         <v>60</v>
       </c>
@@ -4414,14 +4410,14 @@
       <c r="E38" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="105"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="115"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
       <c r="Q38" s="32" t="s">
         <v>95</v>
       </c>
@@ -4448,14 +4444,14 @@
       <c r="E39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="107"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="115"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
       <c r="Q39" s="32" t="s">
         <v>96</v>
       </c>
@@ -4482,14 +4478,14 @@
       <c r="E40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="118"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
       <c r="Q40" s="32" t="s">
         <v>97</v>
       </c>
@@ -4507,12 +4503,12 @@
       <c r="C44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="98" t="s">
+      <c r="L44" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
     </row>
     <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
@@ -4527,147 +4523,147 @@
       <c r="E45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
       <c r="L45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="100" t="s">
+      <c r="Q45" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="100"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="102"/>
     </row>
     <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="104"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="75"/>
     </row>
     <row r="47" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="107"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="115"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
     </row>
     <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="107"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="115"/>
       <c r="K48" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
       <c r="P48" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="75"/>
     </row>
     <row r="49" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="107"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="112"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="75"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="107"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="115"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="75"/>
     </row>
     <row r="51" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="76"/>
-      <c r="S51" s="76"/>
-      <c r="T51" s="76"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="107"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B53" s="99" t="s">
@@ -4676,7 +4672,7 @@
       <c r="C53" s="99"/>
       <c r="D53" s="99"/>
       <c r="E53" s="99"/>
-      <c r="F53" s="77" t="s">
+      <c r="F53" s="76" t="s">
         <v>59</v>
       </c>
       <c r="G53" s="99" t="s">
@@ -4685,7 +4681,7 @@
       <c r="H53" s="99"/>
       <c r="I53" s="99"/>
       <c r="J53" s="99"/>
-      <c r="K53" s="77" t="s">
+      <c r="K53" s="76" t="s">
         <v>60</v>
       </c>
       <c r="L53" s="99" t="s">
@@ -4694,7 +4690,7 @@
       <c r="M53" s="99"/>
       <c r="N53" s="99"/>
       <c r="O53" s="99"/>
-      <c r="P53" s="77" t="s">
+      <c r="P53" s="76" t="s">
         <v>60</v>
       </c>
       <c r="Q53" s="99" t="s">
@@ -4705,166 +4701,166 @@
       <c r="T53" s="99"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="68"/>
-      <c r="C59" s="120" t="s">
+      <c r="B59" s="67"/>
+      <c r="C59" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="G59" s="123" t="s">
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="G59" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="123"/>
-      <c r="L59" s="98" t="s">
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="L59" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="Q59" s="100" t="s">
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="Q59" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="100"/>
-      <c r="S59" s="100"/>
-      <c r="T59" s="100"/>
+      <c r="R59" s="102"/>
+      <c r="S59" s="102"/>
+      <c r="T59" s="102"/>
     </row>
     <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="57"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="111"/>
-      <c r="M60" s="111"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="111"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="Q60" s="75"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
     </row>
     <row r="61" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="57"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="76"/>
-      <c r="T61" s="76"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="106"/>
+      <c r="N61" s="106"/>
+      <c r="O61" s="106"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
     </row>
     <row r="62" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="57"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="124" t="s">
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="124" t="s">
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
       <c r="P62" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
+      <c r="Q62" s="75"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
     </row>
     <row r="63" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="57"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="112"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="112"/>
-      <c r="Q63" s="76"/>
-      <c r="R63" s="76"/>
-      <c r="S63" s="76"/>
-      <c r="T63" s="76"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="106"/>
+      <c r="N63" s="106"/>
+      <c r="O63" s="106"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
     </row>
     <row r="64" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="57"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="112"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="76"/>
-      <c r="S64" s="76"/>
-      <c r="T64" s="76"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
     </row>
     <row r="65" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="57"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="76"/>
-      <c r="S65" s="76"/>
-      <c r="T65" s="76"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="Q65" s="75"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="75"/>
+      <c r="T65" s="75"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B67" s="99" t="s">
@@ -4873,7 +4869,7 @@
       <c r="C67" s="99"/>
       <c r="D67" s="99"/>
       <c r="E67" s="99"/>
-      <c r="F67" s="77" t="s">
+      <c r="F67" s="76" t="s">
         <v>59</v>
       </c>
       <c r="G67" s="99" t="s">
@@ -4882,7 +4878,7 @@
       <c r="H67" s="99"/>
       <c r="I67" s="99"/>
       <c r="J67" s="99"/>
-      <c r="K67" s="77" t="s">
+      <c r="K67" s="76" t="s">
         <v>60</v>
       </c>
       <c r="L67" s="99" t="s">
@@ -4891,7 +4887,7 @@
       <c r="M67" s="99"/>
       <c r="N67" s="99"/>
       <c r="O67" s="99"/>
-      <c r="P67" s="77" t="s">
+      <c r="P67" s="76" t="s">
         <v>60</v>
       </c>
       <c r="Q67" s="99" t="s">
@@ -4903,30 +4899,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -4943,6 +4915,30 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5488,7 +5484,7 @@
       <c r="S7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="116" t="s">
+      <c r="U7" s="119" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="9" t="s">
@@ -5500,7 +5496,7 @@
       <c r="X7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="116" t="s">
+      <c r="Z7" s="119" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -5532,7 +5528,7 @@
       <c r="S8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="116"/>
+      <c r="U8" s="119"/>
       <c r="V8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5542,7 +5538,7 @@
       <c r="X8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="116"/>
+      <c r="Z8" s="119"/>
       <c r="AA8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5572,7 +5568,7 @@
       <c r="S9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="120" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="12" t="s">
@@ -5584,7 +5580,7 @@
       <c r="X9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="117" t="s">
+      <c r="Z9" s="120" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="12" t="s">
@@ -5607,7 +5603,7 @@
       <c r="S10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="117"/>
+      <c r="U10" s="120"/>
       <c r="V10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5617,7 +5613,7 @@
       <c r="X10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="117"/>
+      <c r="Z10" s="120"/>
       <c r="AA10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5733,24 +5729,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="115" t="s">
+      <c r="AB26" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="115"/>
-      <c r="AD26" s="115"/>
-      <c r="AE26" s="115"/>
-      <c r="AH26" s="115" t="s">
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="121"/>
+      <c r="AH26" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="115"/>
-      <c r="AJ26" s="115"/>
-      <c r="AK26" s="115"/>
-      <c r="AN26" s="115" t="s">
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AN26" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="115"/>
-      <c r="AQ26" s="115"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="121"/>
+      <c r="AQ26" s="121"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -5879,7 +5875,7 @@
       <c r="AE28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="116" t="s">
+      <c r="AG28" s="119" t="s">
         <v>117</v>
       </c>
       <c r="AH28" s="9">
@@ -5894,7 +5890,7 @@
       <c r="AK28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="116" t="s">
+      <c r="AM28" s="119" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="9">
@@ -5965,7 +5961,7 @@
       <c r="AE29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="116"/>
+      <c r="AG29" s="119"/>
       <c r="AH29" s="12">
         <v>24.21</v>
       </c>
@@ -5978,7 +5974,7 @@
       <c r="AK29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="116"/>
+      <c r="AM29" s="119"/>
       <c r="AN29" s="12">
         <v>24.21</v>
       </c>
@@ -6047,7 +6043,7 @@
       <c r="AE30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="116"/>
+      <c r="AG30" s="119"/>
       <c r="AH30" s="12">
         <v>26.88</v>
       </c>
@@ -6060,7 +6056,7 @@
       <c r="AK30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="116"/>
+      <c r="AM30" s="119"/>
       <c r="AN30" s="15">
         <v>26.88</v>
       </c>
@@ -6108,7 +6104,7 @@
       <c r="AE31" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="116" t="s">
+      <c r="AG31" s="119" t="s">
         <v>116</v>
       </c>
       <c r="AH31" s="9">
@@ -6123,7 +6119,7 @@
       <c r="AK31" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="116" t="s">
+      <c r="AM31" s="119" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="12">
@@ -6173,7 +6169,7 @@
       <c r="AE32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="116"/>
+      <c r="AG32" s="119"/>
       <c r="AH32" s="12">
         <v>23.4</v>
       </c>
@@ -6186,7 +6182,7 @@
       <c r="AK32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="116"/>
+      <c r="AM32" s="119"/>
       <c r="AN32" s="12">
         <v>23.4</v>
       </c>
@@ -6234,7 +6230,7 @@
       <c r="AE33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="116"/>
+      <c r="AG33" s="119"/>
       <c r="AH33" s="15">
         <v>23.35</v>
       </c>
@@ -6247,7 +6243,7 @@
       <c r="AK33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="116"/>
+      <c r="AM33" s="119"/>
       <c r="AN33" s="15">
         <v>23.35</v>
       </c>
@@ -6368,7 +6364,7 @@
       <c r="AE37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="116" t="s">
+      <c r="AG37" s="119" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="9">
@@ -6383,7 +6379,7 @@
       <c r="AK37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="117" t="s">
+      <c r="AM37" s="120" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="9">
@@ -6421,7 +6417,7 @@
       <c r="AE38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="116"/>
+      <c r="AG38" s="119"/>
       <c r="AH38" s="12">
         <v>24.21</v>
       </c>
@@ -6434,7 +6430,7 @@
       <c r="AK38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="117"/>
+      <c r="AM38" s="120"/>
       <c r="AN38" s="12">
         <v>24.21</v>
       </c>
@@ -6470,7 +6466,7 @@
       <c r="AE39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="116"/>
+      <c r="AG39" s="119"/>
       <c r="AH39" s="12">
         <v>26.88</v>
       </c>
@@ -6483,7 +6479,7 @@
       <c r="AK39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="117"/>
+      <c r="AM39" s="120"/>
       <c r="AN39" s="15">
         <v>26.88</v>
       </c>
@@ -6519,7 +6515,7 @@
       <c r="AE40" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="116" t="s">
+      <c r="AG40" s="119" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="9">
@@ -6534,7 +6530,7 @@
       <c r="AK40" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="117" t="s">
+      <c r="AM40" s="120" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="12">
@@ -6572,7 +6568,7 @@
       <c r="AE41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="116"/>
+      <c r="AG41" s="119"/>
       <c r="AH41" s="12">
         <v>23.4</v>
       </c>
@@ -6585,7 +6581,7 @@
       <c r="AK41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="117"/>
+      <c r="AM41" s="120"/>
       <c r="AN41" s="12">
         <v>23.4</v>
       </c>
@@ -6621,7 +6617,7 @@
       <c r="AE42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="116"/>
+      <c r="AG42" s="119"/>
       <c r="AH42" s="15">
         <v>23.35</v>
       </c>
@@ -6634,7 +6630,7 @@
       <c r="AK42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="117"/>
+      <c r="AM42" s="120"/>
       <c r="AN42" s="15">
         <v>23.35</v>
       </c>
@@ -7136,6 +7132,11 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7146,11 +7147,6 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7174,36 +7170,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="G2" s="118" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="G2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="L2" s="118" t="s">
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="L2" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="Q2" s="119" t="s">
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="Q2" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="V2" s="100" t="s">
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="V2" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
@@ -7211,25 +7207,25 @@
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="63"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="60"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
       <c r="T3" s="60"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
@@ -7237,25 +7233,25 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="60"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="52"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="60"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="60"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
@@ -7263,25 +7259,25 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="60"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="63"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="58"/>
       <c r="M5" s="59"/>
       <c r="N5" s="59"/>
       <c r="O5" s="61"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="61"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57"/>
@@ -7289,25 +7285,25 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="60"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="63"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
       <c r="O6" s="60"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
       <c r="T6" s="60"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57"/>
@@ -7315,25 +7311,25 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="60"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="63"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="52"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="60"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
       <c r="T7" s="60"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57"/>
@@ -7341,25 +7337,25 @@
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="58"/>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
       <c r="O8" s="61"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
       <c r="T8" s="61"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7393,19 +7389,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78" t="s">
+      <c r="S2" s="77"/>
+      <c r="T2" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78" t="s">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79" t="s">
+      <c r="W2" s="77"/>
+      <c r="X2" s="78" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7422,50 +7418,50 @@
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
     </row>
     <row r="4" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80" t="s">
+      <c r="S4" s="78"/>
+      <c r="T4" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="81" t="s">
+      <c r="U4" s="78"/>
+      <c r="V4" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="W4" s="78"/>
-      <c r="X4" s="80">
+      <c r="W4" s="77"/>
+      <c r="X4" s="79">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="R5" s="79" t="s">
+      <c r="R5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79" t="s">
+      <c r="S5" s="78"/>
+      <c r="T5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79" t="s">
+      <c r="U5" s="78"/>
+      <c r="V5" s="78" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="79" t="s">
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="78" t="s">
         <v>131</v>
       </c>
     </row>

--- a/data/toothpaste.xlsx
+++ b/data/toothpaste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6463807C-F525-45CC-B7BD-FA872EB547C5}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E68581-F60B-4796-A08E-2E77CF028E46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="lifeboat" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="152">
   <si>
     <t>Brush</t>
   </si>
@@ -1201,15 +1202,37 @@
   <si>
     <t>Treatment Factor</t>
   </si>
+  <si>
+    <t>Grand Mean</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Monitor / Keyboard</t>
+  </si>
+  <si>
+    <t>Head Display/ Joypad</t>
+  </si>
+  <si>
+    <t>Head Display / Wearable</t>
+  </si>
+  <si>
+    <t>Treatment Means</t>
+  </si>
+  <si>
+    <t>Treatment Effects</t>
+  </si>
+  <si>
+    <t>Residual Errors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
@@ -1627,7 +1650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2052,10 +2075,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2098,7 +2144,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2177,52 +2223,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2270,22 +2271,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,12 +2325,6 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2350,65 +2333,68 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2416,60 +2402,104 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2666,7 +2696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3114,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,13 +3165,13 @@
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="100" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -3156,40 +3186,40 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="L2" s="96" t="s">
+      <c r="G2" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="L2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="41" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3206,41 +3236,41 @@
       <c r="E3" s="1">
         <v>24.39</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="68">
         <f>AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H3" s="88">
+      <c r="H3" s="69">
         <f t="shared" ref="H3:J8" si="0">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="69">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J3" s="89">
+      <c r="J3" s="70">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="82">
+      <c r="K3" s="42"/>
+      <c r="L3" s="63">
         <f t="shared" ref="L3:O8" si="1">AVERAGE(B$3:B$8)</f>
         <v>23.093333333333334</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="63">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N3" s="82">
+      <c r="N3" s="63">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O3" s="85">
+      <c r="O3" s="66">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
@@ -3267,36 +3297,36 @@
       <c r="E4" s="1">
         <v>21.45</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="71">
         <f t="shared" ref="G4:G8" si="2">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="66">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="83">
+      <c r="K4" s="42"/>
+      <c r="L4" s="64">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M4" s="83">
+      <c r="M4" s="64">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N4" s="83">
+      <c r="N4" s="64">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="66">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3332,36 +3362,36 @@
       <c r="E5" s="1">
         <v>32.74</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="71">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="66">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="83">
+      <c r="K5" s="42"/>
+      <c r="L5" s="64">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="64">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N5" s="83">
+      <c r="N5" s="64">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="66">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3393,36 +3423,36 @@
       <c r="E6" s="1">
         <v>24.21</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="71">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J6" s="85">
+      <c r="J6" s="66">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="83">
+      <c r="K6" s="42"/>
+      <c r="L6" s="64">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="64">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N6" s="83">
+      <c r="N6" s="64">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="66">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3450,36 +3480,36 @@
       <c r="E7" s="1">
         <v>25.67</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="71">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="36">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="66">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="83">
+      <c r="K7" s="42"/>
+      <c r="L7" s="64">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="64">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N7" s="83">
+      <c r="N7" s="64">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="66">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3497,40 +3527,40 @@
       <c r="E8" s="1">
         <v>23.42</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="72">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="73">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="73">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="67">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="84">
+      <c r="K8" s="42"/>
+      <c r="L8" s="65">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="65">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N8" s="84">
+      <c r="N8" s="65">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O8" s="86">
+      <c r="O8" s="67">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-      <c r="Z8" s="95"/>
+      <c r="Z8" s="74"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="Z10" s="1">
@@ -3542,14 +3572,14 @@
       <c r="C11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="100" t="s">
+      <c r="L11" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+    </row>
+    <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
@@ -3562,12 +3592,12 @@
       <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
+      <c r="G12" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
       <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
@@ -3580,14 +3610,14 @@
       <c r="O12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="109" t="s">
+      <c r="Q12" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+    </row>
+    <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>19.12</v>
       </c>
@@ -3600,58 +3630,58 @@
       <c r="E13" s="18">
         <v>24.39</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="68">
         <f>AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="69">
         <f t="shared" ref="H13:J18" si="4">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="69">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="70">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K13" s="18"/>
-      <c r="L13" s="74">
+      <c r="L13" s="103">
         <f t="shared" ref="L13:O18" si="5">L3-$H$13</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="103">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="103">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O13" s="74">
+      <c r="O13" s="103">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="69">
+      <c r="Q13" s="109">
         <f>B13-(G13+L13)</f>
         <v>-3.9733333333333327</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="109">
         <f t="shared" ref="R13:R18" si="6">C13-(H13+M13)</f>
         <v>-1.4166666666666714</v>
       </c>
-      <c r="S13" s="69">
+      <c r="S13" s="109">
         <f t="shared" ref="S13:S18" si="7">D13-(I13+N13)</f>
         <v>2.9049999999999976</v>
       </c>
-      <c r="T13" s="69">
+      <c r="T13" s="109">
         <f t="shared" ref="T13:T18" si="8">E13-(J13+O13)</f>
         <v>-0.92333333333334267</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>24.21</v>
       </c>
@@ -3664,53 +3694,53 @@
       <c r="E14" s="18">
         <v>21.45</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="71">
         <f t="shared" ref="G14:G18" si="9">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="66">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K14" s="18"/>
-      <c r="L14" s="93">
+      <c r="L14" s="104">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="104">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="104">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O14" s="93">
+      <c r="O14" s="104">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="69">
+      <c r="Q14" s="109">
         <f t="shared" ref="Q14:Q18" si="10">B14-(G14+L14)</f>
         <v>1.1166666666666671</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="109">
         <f t="shared" si="6"/>
         <v>2.3333333333329875E-2</v>
       </c>
-      <c r="S14" s="69">
+      <c r="S14" s="109">
         <f t="shared" si="7"/>
         <v>0.63499999999999801</v>
       </c>
-      <c r="T14" s="69">
+      <c r="T14" s="109">
         <f t="shared" si="8"/>
         <v>-3.8633333333333439</v>
       </c>
@@ -3719,7 +3749,7 @@
         <v>4.7949025462963064</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>26.88</v>
       </c>
@@ -3735,57 +3765,57 @@
       <c r="F15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="71">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="66">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="93">
+      <c r="L15" s="104">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="104">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="104">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O15" s="93">
+      <c r="O15" s="104">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="69">
+      <c r="Q15" s="109">
         <f t="shared" si="10"/>
         <v>3.7866666666666653</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="109">
         <f t="shared" si="6"/>
         <v>-0.10666666666666913</v>
       </c>
-      <c r="S15" s="69">
+      <c r="S15" s="109">
         <f t="shared" si="7"/>
         <v>-3.6850000000000023</v>
       </c>
-      <c r="T15" s="69">
+      <c r="T15" s="109">
         <f t="shared" si="8"/>
         <v>7.4266666666666588</v>
       </c>
@@ -3806,7 +3836,7 @@
         <v>15.172506666666672</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>21.6</v>
       </c>
@@ -3819,58 +3849,58 @@
       <c r="E16" s="18">
         <v>24.21</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="71">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="66">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K16" s="18"/>
-      <c r="L16" s="93">
+      <c r="L16" s="104">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M16" s="93">
+      <c r="M16" s="104">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="104">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O16" s="104">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P16" s="18"/>
-      <c r="Q16" s="69">
+      <c r="Q16" s="109">
         <f t="shared" si="10"/>
         <v>-1.4933333333333323</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="109">
         <f t="shared" si="6"/>
         <v>2.1133333333333297</v>
       </c>
-      <c r="S16" s="69">
+      <c r="S16" s="109">
         <f t="shared" si="7"/>
         <v>0.41499999999999915</v>
       </c>
-      <c r="T16" s="69">
+      <c r="T16" s="109">
         <f t="shared" si="8"/>
         <v>-1.1033333333333424</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>23.4</v>
       </c>
@@ -3883,58 +3913,58 @@
       <c r="E17" s="18">
         <v>25.67</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="71">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="66">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K17" s="18"/>
-      <c r="L17" s="93">
+      <c r="L17" s="104">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M17" s="93">
+      <c r="M17" s="104">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="104">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="104">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P17" s="18"/>
-      <c r="Q17" s="69">
+      <c r="Q17" s="109">
         <f t="shared" si="10"/>
         <v>0.30666666666666487</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="109">
         <f t="shared" si="6"/>
         <v>-2.3566666666666691</v>
       </c>
-      <c r="S17" s="69">
+      <c r="S17" s="109">
         <f t="shared" si="7"/>
         <v>1.134999999999998</v>
       </c>
-      <c r="T17" s="69">
+      <c r="T17" s="109">
         <f t="shared" si="8"/>
         <v>0.35666666666665847</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>23.35</v>
       </c>
@@ -3947,53 +3977,53 @@
       <c r="E18" s="18">
         <v>23.42</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="72">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="73">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="73">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="67">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K18" s="18"/>
-      <c r="L18" s="94">
+      <c r="L18" s="105">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M18" s="94">
+      <c r="M18" s="105">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N18" s="94">
+      <c r="N18" s="105">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O18" s="94">
+      <c r="O18" s="105">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="69">
+      <c r="Q18" s="109">
         <f t="shared" si="10"/>
         <v>0.25666666666666771</v>
       </c>
-      <c r="R18" s="69">
+      <c r="R18" s="109">
         <f t="shared" si="6"/>
         <v>1.7433333333333287</v>
       </c>
-      <c r="S18" s="69">
+      <c r="S18" s="109">
         <f t="shared" si="7"/>
         <v>-1.4050000000000011</v>
       </c>
-      <c r="T18" s="69">
+      <c r="T18" s="109">
         <f t="shared" si="8"/>
         <v>-1.8933333333333415</v>
       </c>
@@ -4002,14 +4032,14 @@
       <c r="C23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="100" t="s">
+      <c r="L23" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+    </row>
+    <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>4</v>
       </c>
@@ -4022,12 +4052,12 @@
       <c r="E24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
+      <c r="G24" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="L24" s="18" t="s">
         <v>4</v>
       </c>
@@ -4040,14 +4070,14 @@
       <c r="O24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="109" t="s">
+      <c r="Q24" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+    </row>
+    <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>19.12</v>
       </c>
@@ -4060,21 +4090,21 @@
       <c r="E25" s="1">
         <v>24.39</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="68">
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+    </row>
+    <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53">
         <v>24.21</v>
       </c>
       <c r="C26" s="1">
@@ -4086,23 +4116,23 @@
       <c r="E26" s="1">
         <v>21.45</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="66"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
       <c r="Y26" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>26.88</v>
       </c>
@@ -4118,24 +4148,24 @@
       <c r="F27" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="43"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="66"/>
       <c r="K27" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
     </row>
     <row r="28" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
@@ -4150,18 +4180,18 @@
       <c r="E28" s="1">
         <v>24.21</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="43"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="66"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
     </row>
     <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
@@ -4176,29 +4206,29 @@
       <c r="E29" s="1">
         <v>25.67</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="71">
+      <c r="G29" s="71"/>
+      <c r="H29" s="54">
         <f>H17</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="43"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="70">
+      <c r="I29" s="36"/>
+      <c r="J29" s="66"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="108">
         <f>M17</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="72">
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="108">
         <f>R17</f>
         <v>-2.3566666666666691</v>
       </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+    </row>
+    <row r="30" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>23.35</v>
       </c>
@@ -4211,32 +4241,32 @@
       <c r="E30" s="1">
         <v>23.42</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="67"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H32" s="73"/>
+      <c r="H32" s="55"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="100" t="s">
+      <c r="L33" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
@@ -4251,12 +4281,12 @@
       <c r="E34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
+      <c r="G34" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
       <c r="L34" s="18" t="s">
         <v>4</v>
       </c>
@@ -4269,14 +4299,14 @@
       <c r="O34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="109" t="s">
+      <c r="Q34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-    </row>
-    <row r="35" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+    </row>
+    <row r="35" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="32" t="s">
         <v>62</v>
       </c>
@@ -4289,38 +4319,38 @@
       <c r="E35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="112"/>
-      <c r="L35" s="105" t="s">
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
+      <c r="L35" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="105" t="s">
+      <c r="M35" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="105" t="s">
+      <c r="N35" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="105" t="s">
+      <c r="O35" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="32" t="s">
+      <c r="Q35" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="R35" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="S35" s="32" t="s">
+      <c r="S35" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="T35" s="32" t="s">
+      <c r="T35" s="109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="32" t="s">
         <v>66</v>
       </c>
@@ -4333,28 +4363,28 @@
       <c r="E36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="113"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="115"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="Q36" s="32" t="s">
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="Q36" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="R36" s="32" t="s">
+      <c r="R36" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="S36" s="32" t="s">
+      <c r="S36" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="T36" s="32" t="s">
+      <c r="T36" s="109" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="32" t="s">
         <v>70</v>
       </c>
@@ -4370,34 +4400,34 @@
       <c r="F37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="113"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="115"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
       <c r="K37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
       <c r="P37" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q37" s="32" t="s">
+      <c r="Q37" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="R37" s="32" t="s">
+      <c r="R37" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="S37" s="32" t="s">
+      <c r="S37" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="T37" s="32" t="s">
+      <c r="T37" s="109" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="32" t="s">
         <v>74</v>
       </c>
@@ -4410,28 +4440,28 @@
       <c r="E38" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="113"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="115"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="Q38" s="32" t="s">
+      <c r="G38" s="86"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="Q38" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="R38" s="32" t="s">
+      <c r="R38" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="S38" s="32" t="s">
+      <c r="S38" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="T38" s="32" t="s">
+      <c r="T38" s="109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="2:20" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="32" t="s">
         <v>78</v>
       </c>
@@ -4444,24 +4474,24 @@
       <c r="E39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="113"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="115"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="Q39" s="32" t="s">
+      <c r="G39" s="86"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="88"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="Q39" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="32" t="s">
+      <c r="R39" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="S39" s="32" t="s">
+      <c r="S39" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="32" t="s">
+      <c r="T39" s="109" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4478,24 +4508,24 @@
       <c r="E40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="116"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="118"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="Q40" s="32" t="s">
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="Q40" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="R40" s="32" t="s">
+      <c r="R40" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="S40" s="32" t="s">
+      <c r="S40" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="T40" s="32" t="s">
+      <c r="T40" s="109" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4503,12 +4533,12 @@
       <c r="C44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="100" t="s">
+      <c r="L44" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
     </row>
     <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
@@ -4523,12 +4553,12 @@
       <c r="E45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
+      <c r="G45" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
       <c r="L45" s="18" t="s">
         <v>4</v>
       </c>
@@ -4541,364 +4571,388 @@
       <c r="O45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="102" t="s">
+      <c r="Q45" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="102"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
     </row>
     <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="85"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
     </row>
     <row r="47" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="75"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="88"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
     </row>
     <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="115"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="88"/>
       <c r="K48" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
       <c r="P48" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="75"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="75"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
     </row>
     <row r="49" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="75"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="88"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="115"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="75"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="88"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
     </row>
     <row r="51" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="107"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="99" t="s">
+      <c r="B53" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="76" t="s">
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="99" t="s">
+      <c r="G53" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="76" t="s">
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="99" t="s">
+      <c r="L53" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="76" t="s">
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="99" t="s">
+      <c r="Q53" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="52"/>
+      <c r="C59" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="G59" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="L59" s="100" t="s">
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="G59" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="L59" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="100"/>
-      <c r="N59" s="100"/>
-      <c r="O59" s="100"/>
-      <c r="Q59" s="102" t="s">
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="Q59" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="102"/>
-      <c r="S59" s="102"/>
-      <c r="T59" s="102"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="82"/>
+      <c r="T59" s="82"/>
     </row>
     <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="57"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="105"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="105"/>
-      <c r="Q60" s="75"/>
-      <c r="R60" s="75"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="75"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
     </row>
     <row r="61" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="57"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="106"/>
-      <c r="N61" s="106"/>
-      <c r="O61" s="106"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
     </row>
     <row r="62" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="57"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="98" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="104"/>
-      <c r="K62" s="98" t="s">
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="106"/>
-      <c r="M62" s="106"/>
-      <c r="N62" s="106"/>
-      <c r="O62" s="106"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
       <c r="P62" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
     </row>
     <row r="63" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="57"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="106"/>
-      <c r="O63" s="106"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
     </row>
     <row r="64" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="57"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="106"/>
-      <c r="O64" s="106"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
     </row>
     <row r="65" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="57"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="104"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="104"/>
-      <c r="J65" s="104"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="75"/>
-      <c r="S65" s="75"/>
-      <c r="T65" s="75"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="99" t="s">
+      <c r="B67" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="76" t="s">
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="99" t="s">
+      <c r="G67" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="76" t="s">
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="99" t="s">
+      <c r="L67" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="99"/>
-      <c r="N67" s="99"/>
-      <c r="O67" s="99"/>
-      <c r="P67" s="76" t="s">
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="99" t="s">
+      <c r="Q67" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="99"/>
-      <c r="S67" s="99"/>
-      <c r="T67" s="99"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -4915,30 +4969,6 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5343,8 +5373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:AY51"/>
   <sheetViews>
-    <sheetView topLeftCell="P22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37:AE42"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5484,7 +5514,7 @@
       <c r="S7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="119" t="s">
+      <c r="U7" s="99" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="9" t="s">
@@ -5496,7 +5526,7 @@
       <c r="X7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="119" t="s">
+      <c r="Z7" s="99" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -5528,7 +5558,7 @@
       <c r="S8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="119"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5538,7 +5568,7 @@
       <c r="X8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="119"/>
+      <c r="Z8" s="99"/>
       <c r="AA8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5568,7 +5598,7 @@
       <c r="S9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="120" t="s">
+      <c r="U9" s="100" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="12" t="s">
@@ -5580,7 +5610,7 @@
       <c r="X9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="120" t="s">
+      <c r="Z9" s="100" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="12" t="s">
@@ -5603,7 +5633,7 @@
       <c r="S10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="120"/>
+      <c r="U10" s="100"/>
       <c r="V10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5613,7 +5643,7 @@
       <c r="X10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="120"/>
+      <c r="Z10" s="100"/>
       <c r="AA10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5729,24 +5759,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="121" t="s">
+      <c r="AB26" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="121"/>
-      <c r="AH26" s="121" t="s">
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AH26" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AN26" s="121" t="s">
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AN26" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="121"/>
-      <c r="AQ26" s="121"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -5773,22 +5803,22 @@
       <c r="P27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="53">
+      <c r="Q27" s="38">
         <v>19.12</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="39">
         <v>24.21</v>
       </c>
-      <c r="S27" s="54">
+      <c r="S27" s="39">
         <v>26.88</v>
       </c>
-      <c r="T27" s="54">
+      <c r="T27" s="39">
         <v>21.6</v>
       </c>
-      <c r="U27" s="54">
+      <c r="U27" s="39">
         <v>23.4</v>
       </c>
-      <c r="V27" s="55">
+      <c r="V27" s="40">
         <v>23.35</v>
       </c>
       <c r="AB27" s="18" t="s">
@@ -5845,22 +5875,22 @@
       <c r="P28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="53">
+      <c r="Q28" s="38">
         <v>18.559999999999999</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="39">
         <v>20</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S28" s="39">
         <v>19.87</v>
       </c>
-      <c r="T28" s="54">
+      <c r="T28" s="39">
         <v>22.09</v>
       </c>
-      <c r="U28" s="54">
+      <c r="U28" s="39">
         <v>17.62</v>
       </c>
-      <c r="V28" s="55">
+      <c r="V28" s="40">
         <v>21.72</v>
       </c>
       <c r="AB28" s="9">
@@ -5875,7 +5905,7 @@
       <c r="AE28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="119" t="s">
+      <c r="AG28" s="99" t="s">
         <v>117</v>
       </c>
       <c r="AH28" s="9">
@@ -5890,7 +5920,7 @@
       <c r="AK28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="119" t="s">
+      <c r="AM28" s="99" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="9">
@@ -5931,22 +5961,22 @@
       <c r="P29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="38">
         <v>25.58</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="39">
         <v>23.31</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="39">
         <v>18.989999999999998</v>
       </c>
-      <c r="T29" s="54">
+      <c r="T29" s="39">
         <v>23.09</v>
       </c>
-      <c r="U29" s="54">
+      <c r="U29" s="39">
         <v>23.81</v>
       </c>
-      <c r="V29" s="55">
+      <c r="V29" s="40">
         <v>21.27</v>
       </c>
       <c r="AB29" s="12">
@@ -5961,7 +5991,7 @@
       <c r="AE29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="119"/>
+      <c r="AG29" s="99"/>
       <c r="AH29" s="12">
         <v>24.21</v>
       </c>
@@ -5974,7 +6004,7 @@
       <c r="AK29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="119"/>
+      <c r="AM29" s="99"/>
       <c r="AN29" s="12">
         <v>24.21</v>
       </c>
@@ -6013,22 +6043,22 @@
       <c r="P30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="38">
         <v>24.39</v>
       </c>
-      <c r="R30" s="54">
+      <c r="R30" s="39">
         <v>21.45</v>
       </c>
-      <c r="S30" s="54">
+      <c r="S30" s="39">
         <v>32.74</v>
       </c>
-      <c r="T30" s="54">
+      <c r="T30" s="39">
         <v>24.21</v>
       </c>
-      <c r="U30" s="54">
+      <c r="U30" s="39">
         <v>25.67</v>
       </c>
-      <c r="V30" s="55">
+      <c r="V30" s="40">
         <v>23.42</v>
       </c>
       <c r="AB30" s="12">
@@ -6043,7 +6073,7 @@
       <c r="AE30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="119"/>
+      <c r="AG30" s="99"/>
       <c r="AH30" s="12">
         <v>26.88</v>
       </c>
@@ -6056,7 +6086,7 @@
       <c r="AK30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="119"/>
+      <c r="AM30" s="99"/>
       <c r="AN30" s="15">
         <v>26.88</v>
       </c>
@@ -6104,7 +6134,7 @@
       <c r="AE31" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="119" t="s">
+      <c r="AG31" s="99" t="s">
         <v>116</v>
       </c>
       <c r="AH31" s="9">
@@ -6119,7 +6149,7 @@
       <c r="AK31" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="119" t="s">
+      <c r="AM31" s="99" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="12">
@@ -6169,7 +6199,7 @@
       <c r="AE32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="119"/>
+      <c r="AG32" s="99"/>
       <c r="AH32" s="12">
         <v>23.4</v>
       </c>
@@ -6182,7 +6212,7 @@
       <c r="AK32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="119"/>
+      <c r="AM32" s="99"/>
       <c r="AN32" s="12">
         <v>23.4</v>
       </c>
@@ -6230,7 +6260,7 @@
       <c r="AE33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="119"/>
+      <c r="AG33" s="99"/>
       <c r="AH33" s="15">
         <v>23.35</v>
       </c>
@@ -6243,7 +6273,7 @@
       <c r="AK33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="119"/>
+      <c r="AM33" s="99"/>
       <c r="AN33" s="15">
         <v>23.35</v>
       </c>
@@ -6340,7 +6370,7 @@
       <c r="I37">
         <v>22.09</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="38">
         <v>23.09</v>
       </c>
       <c r="L37" s="23">
@@ -6349,7 +6379,7 @@
       <c r="M37" s="23">
         <v>22.68</v>
       </c>
-      <c r="N37" s="55">
+      <c r="N37" s="40">
         <v>25.31</v>
       </c>
       <c r="AB37" s="9">
@@ -6364,7 +6394,7 @@
       <c r="AE37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="119" t="s">
+      <c r="AG37" s="99" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="9">
@@ -6379,7 +6409,7 @@
       <c r="AK37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="120" t="s">
+      <c r="AM37" s="100" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="9">
@@ -6417,7 +6447,7 @@
       <c r="AE38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="119"/>
+      <c r="AG38" s="99"/>
       <c r="AH38" s="12">
         <v>24.21</v>
       </c>
@@ -6430,7 +6460,7 @@
       <c r="AK38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="120"/>
+      <c r="AM38" s="100"/>
       <c r="AN38" s="12">
         <v>24.21</v>
       </c>
@@ -6466,7 +6496,7 @@
       <c r="AE39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="119"/>
+      <c r="AG39" s="99"/>
       <c r="AH39" s="12">
         <v>26.88</v>
       </c>
@@ -6479,7 +6509,7 @@
       <c r="AK39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="120"/>
+      <c r="AM39" s="100"/>
       <c r="AN39" s="15">
         <v>26.88</v>
       </c>
@@ -6515,7 +6545,7 @@
       <c r="AE40" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="119" t="s">
+      <c r="AG40" s="99" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="9">
@@ -6530,7 +6560,7 @@
       <c r="AK40" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="120" t="s">
+      <c r="AM40" s="100" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="12">
@@ -6568,7 +6598,7 @@
       <c r="AE41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="119"/>
+      <c r="AG41" s="99"/>
       <c r="AH41" s="12">
         <v>23.4</v>
       </c>
@@ -6581,7 +6611,7 @@
       <c r="AK41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="120"/>
+      <c r="AM41" s="100"/>
       <c r="AN41" s="12">
         <v>23.4</v>
       </c>
@@ -6617,7 +6647,7 @@
       <c r="AE42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="119"/>
+      <c r="AG42" s="99"/>
       <c r="AH42" s="15">
         <v>23.35</v>
       </c>
@@ -6630,7 +6660,7 @@
       <c r="AK42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="120"/>
+      <c r="AM42" s="100"/>
       <c r="AN42" s="15">
         <v>23.35</v>
       </c>
@@ -7132,11 +7162,6 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7147,6 +7172,11 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7157,8 +7187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Y8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,192 +7200,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="G2" s="122" t="s">
+      <c r="B2" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="G2" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="L2" s="122" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="L2" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="Q2" s="123" t="s">
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="Q2" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="V2" s="102" t="s">
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="V2" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="60"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="45"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="52"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="37"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="60"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="45"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="61"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="46"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="60"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="45"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="52"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="60"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="45"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="61"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="46"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7374,7 +7404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B883F1-1F0C-4524-B73F-E7D1A0CFC916}">
   <dimension ref="B2:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -7389,19 +7419,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77" t="s">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77" t="s">
+      <c r="U2" s="58"/>
+      <c r="V2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="77"/>
-      <c r="X2" s="78" t="s">
+      <c r="W2" s="58"/>
+      <c r="X2" s="59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7418,54 +7448,1131 @@
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
     </row>
     <row r="4" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="78"/>
-      <c r="T4" s="79" t="s">
+      <c r="S4" s="59"/>
+      <c r="T4" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="U4" s="78"/>
-      <c r="V4" s="80" t="s">
+      <c r="U4" s="59"/>
+      <c r="V4" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="79">
+      <c r="W4" s="58"/>
+      <c r="X4" s="60">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="R5" s="78" t="s">
+      <c r="R5" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78" t="s">
+      <c r="S5" s="59"/>
+      <c r="T5" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78" t="s">
+      <c r="U5" s="59"/>
+      <c r="V5" s="59" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="78" t="s">
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="59" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F787B73C-D5B7-4C11-BF48-18C26E72EF85}">
+  <dimension ref="A2:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="13" style="18" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="15" width="13" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="L2" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+    </row>
+    <row r="3" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="110"/>
+      <c r="G3" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="110"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="51">
+        <v>4.5613999999999999</v>
+      </c>
+      <c r="C4" s="112">
+        <v>5.4531999999999998</v>
+      </c>
+      <c r="D4" s="51">
+        <v>1.8773</v>
+      </c>
+      <c r="E4" s="113">
+        <v>9.8256999999999994</v>
+      </c>
+      <c r="G4" s="115">
+        <v>6.5846</v>
+      </c>
+      <c r="H4" s="116">
+        <v>6.5846</v>
+      </c>
+      <c r="I4" s="116">
+        <v>6.5846</v>
+      </c>
+      <c r="J4" s="117">
+        <v>6.5846</v>
+      </c>
+      <c r="L4" s="48">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="M4" s="48">
+        <v>7.8491999999999997</v>
+      </c>
+      <c r="N4" s="48">
+        <v>6.5789</v>
+      </c>
+      <c r="O4" s="48">
+        <v>7.1616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="51">
+        <v>6.6593</v>
+      </c>
+      <c r="C5" s="112">
+        <v>8.9207999999999998</v>
+      </c>
+      <c r="D5" s="51">
+        <v>6.1883999999999997</v>
+      </c>
+      <c r="E5" s="113">
+        <v>8.9987999999999992</v>
+      </c>
+      <c r="G5" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H5" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I5" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J5" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L5" s="49">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="M5" s="49">
+        <v>7.8491999999999997</v>
+      </c>
+      <c r="N5" s="49">
+        <v>6.5789</v>
+      </c>
+      <c r="O5" s="49">
+        <v>7.1616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="51">
+        <v>5.6426999999999996</v>
+      </c>
+      <c r="C6" s="112">
+        <v>8.3489000000000004</v>
+      </c>
+      <c r="D6" s="51">
+        <v>6.8029000000000002</v>
+      </c>
+      <c r="E6" s="113">
+        <v>5.4112</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H6" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I6" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J6" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="49">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="M6" s="49">
+        <v>7.8491999999999997</v>
+      </c>
+      <c r="N6" s="49">
+        <v>6.5789</v>
+      </c>
+      <c r="O6" s="49">
+        <v>7.1616</v>
+      </c>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="51">
+        <v>6.4394</v>
+      </c>
+      <c r="C7" s="112">
+        <v>8.3175000000000008</v>
+      </c>
+      <c r="D7" s="51">
+        <v>9.4535</v>
+      </c>
+      <c r="E7" s="113">
+        <v>4.9396000000000004</v>
+      </c>
+      <c r="G7" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H7" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I7" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J7" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L7" s="49">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="M7" s="49">
+        <v>7.8491999999999997</v>
+      </c>
+      <c r="N7" s="49">
+        <v>6.5789</v>
+      </c>
+      <c r="O7" s="49">
+        <v>7.1616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="51">
+        <v>4.8635000000000002</v>
+      </c>
+      <c r="C8" s="112">
+        <v>9.7848000000000006</v>
+      </c>
+      <c r="D8" s="51">
+        <v>8.7311999999999994</v>
+      </c>
+      <c r="E8" s="113">
+        <v>8.6486000000000001</v>
+      </c>
+      <c r="G8" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H8" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I8" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J8" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L8" s="49">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="M8" s="49">
+        <v>7.8491999999999997</v>
+      </c>
+      <c r="N8" s="49">
+        <v>6.5789</v>
+      </c>
+      <c r="O8" s="49">
+        <v>7.1616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="51">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="C9" s="112">
+        <v>6.2697000000000003</v>
+      </c>
+      <c r="D9" s="51">
+        <v>6.4198000000000004</v>
+      </c>
+      <c r="E9" s="113">
+        <v>5.1459000000000001</v>
+      </c>
+      <c r="G9" s="43">
+        <v>6.5846</v>
+      </c>
+      <c r="H9" s="79">
+        <v>6.5846</v>
+      </c>
+      <c r="I9" s="79">
+        <v>6.5846</v>
+      </c>
+      <c r="J9" s="46">
+        <v>6.5846</v>
+      </c>
+      <c r="L9" s="50">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="M9" s="50">
+        <v>7.8491999999999997</v>
+      </c>
+      <c r="N9" s="50">
+        <v>6.5789</v>
+      </c>
+      <c r="O9" s="50">
+        <v>7.1616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="L12" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+    </row>
+    <row r="13" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="110"/>
+      <c r="G13" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="51">
+        <v>4.5613999999999999</v>
+      </c>
+      <c r="C14" s="112">
+        <v>5.4531999999999998</v>
+      </c>
+      <c r="D14" s="51">
+        <v>1.8773</v>
+      </c>
+      <c r="E14" s="113">
+        <v>9.8256999999999994</v>
+      </c>
+      <c r="G14" s="115">
+        <v>6.5846</v>
+      </c>
+      <c r="H14" s="116">
+        <v>6.5846</v>
+      </c>
+      <c r="I14" s="116">
+        <v>6.5846</v>
+      </c>
+      <c r="J14" s="117">
+        <v>6.5846</v>
+      </c>
+      <c r="L14" s="48">
+        <f>L4-G14</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M14" s="48">
+        <f t="shared" ref="M14:O14" si="0">M4-H14</f>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N14" s="48">
+        <f t="shared" si="0"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O14" s="48">
+        <f t="shared" si="0"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="113"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51">
+        <v>6.6593</v>
+      </c>
+      <c r="C15" s="112">
+        <v>8.9207999999999998</v>
+      </c>
+      <c r="D15" s="51">
+        <v>6.1883999999999997</v>
+      </c>
+      <c r="E15" s="113">
+        <v>8.9987999999999992</v>
+      </c>
+      <c r="G15" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H15" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I15" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J15" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L15" s="49">
+        <f t="shared" ref="L15:O15" si="1">L5-G15</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M15" s="49">
+        <f t="shared" si="1"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N15" s="49">
+        <f t="shared" si="1"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O15" s="49">
+        <f t="shared" si="1"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="113"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="51">
+        <v>5.6426999999999996</v>
+      </c>
+      <c r="C16" s="112">
+        <v>8.3489000000000004</v>
+      </c>
+      <c r="D16" s="51">
+        <v>6.8029000000000002</v>
+      </c>
+      <c r="E16" s="113">
+        <v>5.4112</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H16" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I16" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J16" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="49">
+        <f t="shared" ref="L16:O16" si="2">L6-G16</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M16" s="49">
+        <f t="shared" si="2"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N16" s="49">
+        <f t="shared" si="2"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O16" s="49">
+        <f t="shared" si="2"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="113"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="51">
+        <v>6.4394</v>
+      </c>
+      <c r="C17" s="112">
+        <v>8.3175000000000008</v>
+      </c>
+      <c r="D17" s="51">
+        <v>9.4535</v>
+      </c>
+      <c r="E17" s="113">
+        <v>4.9396000000000004</v>
+      </c>
+      <c r="G17" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H17" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I17" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J17" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L17" s="49">
+        <f t="shared" ref="L17:O17" si="3">L7-G17</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M17" s="49">
+        <f t="shared" si="3"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N17" s="49">
+        <f t="shared" si="3"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O17" s="49">
+        <f t="shared" si="3"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="113"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="51">
+        <v>4.8635000000000002</v>
+      </c>
+      <c r="C18" s="112">
+        <v>9.7848000000000006</v>
+      </c>
+      <c r="D18" s="51">
+        <v>8.7311999999999994</v>
+      </c>
+      <c r="E18" s="113">
+        <v>8.6486000000000001</v>
+      </c>
+      <c r="G18" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H18" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I18" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J18" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L18" s="49">
+        <f t="shared" ref="L18:O18" si="4">L8-G18</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M18" s="49">
+        <f t="shared" si="4"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N18" s="49">
+        <f t="shared" si="4"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O18" s="49">
+        <f t="shared" si="4"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="113"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="51">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="C19" s="112">
+        <v>6.2697000000000003</v>
+      </c>
+      <c r="D19" s="51">
+        <v>6.4198000000000004</v>
+      </c>
+      <c r="E19" s="113">
+        <v>5.1459000000000001</v>
+      </c>
+      <c r="G19" s="43">
+        <v>6.5846</v>
+      </c>
+      <c r="H19" s="79">
+        <v>6.5846</v>
+      </c>
+      <c r="I19" s="79">
+        <v>6.5846</v>
+      </c>
+      <c r="J19" s="46">
+        <v>6.5846</v>
+      </c>
+      <c r="L19" s="50">
+        <f t="shared" ref="L19:O19" si="5">L9-G19</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M19" s="50">
+        <f t="shared" si="5"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N19" s="50">
+        <f t="shared" si="5"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O19" s="50">
+        <f t="shared" si="5"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="113"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="L22" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+    </row>
+    <row r="23" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="110"/>
+      <c r="G23" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="114" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="51">
+        <v>4.5613999999999999</v>
+      </c>
+      <c r="C24" s="112">
+        <v>5.4531999999999998</v>
+      </c>
+      <c r="D24" s="51">
+        <v>1.8773</v>
+      </c>
+      <c r="E24" s="113">
+        <v>9.8256999999999994</v>
+      </c>
+      <c r="G24" s="115">
+        <v>6.5846</v>
+      </c>
+      <c r="H24" s="116">
+        <v>6.5846</v>
+      </c>
+      <c r="I24" s="116">
+        <v>6.5846</v>
+      </c>
+      <c r="J24" s="117">
+        <v>6.5846</v>
+      </c>
+      <c r="L24" s="48">
+        <f>L14</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M24" s="48">
+        <f t="shared" ref="M24:O24" si="6">M14</f>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N24" s="48">
+        <f t="shared" si="6"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O24" s="48">
+        <f t="shared" si="6"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q24" s="51">
+        <f>B24-(G24+L24)</f>
+        <v>-0.1875</v>
+      </c>
+      <c r="R24" s="112">
+        <f t="shared" ref="R24:R29" si="7">C24-SUM(H24,M24)</f>
+        <v>-2.3959999999999999</v>
+      </c>
+      <c r="S24" s="51">
+        <f t="shared" ref="S24:S29" si="8">D24-SUM(I24,N24)</f>
+        <v>-4.7016</v>
+      </c>
+      <c r="T24" s="113">
+        <f t="shared" ref="T24:T29" si="9">E24-SUM(J24,O24)</f>
+        <v>2.6640999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="51">
+        <v>6.6593</v>
+      </c>
+      <c r="C25" s="112">
+        <v>8.9207999999999998</v>
+      </c>
+      <c r="D25" s="51">
+        <v>6.1883999999999997</v>
+      </c>
+      <c r="E25" s="113">
+        <v>8.9987999999999992</v>
+      </c>
+      <c r="G25" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H25" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I25" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J25" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L25" s="49">
+        <f t="shared" ref="L25:O25" si="10">L15</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M25" s="49">
+        <f t="shared" si="10"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N25" s="49">
+        <f t="shared" si="10"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O25" s="49">
+        <f t="shared" si="10"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q25" s="51">
+        <f t="shared" ref="Q25:Q29" si="11">B25-SUM(G25,L25)</f>
+        <v>1.9104000000000001</v>
+      </c>
+      <c r="R25" s="112">
+        <f t="shared" si="7"/>
+        <v>1.0716000000000001</v>
+      </c>
+      <c r="S25" s="51">
+        <f t="shared" si="8"/>
+        <v>-0.39050000000000029</v>
+      </c>
+      <c r="T25" s="113">
+        <f t="shared" si="9"/>
+        <v>1.8371999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="51">
+        <v>5.6426999999999996</v>
+      </c>
+      <c r="C26" s="112">
+        <v>8.3489000000000004</v>
+      </c>
+      <c r="D26" s="51">
+        <v>6.8029000000000002</v>
+      </c>
+      <c r="E26" s="113">
+        <v>5.4112</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H26" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I26" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J26" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="49">
+        <f t="shared" ref="L26:O26" si="12">L16</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M26" s="49">
+        <f t="shared" si="12"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N26" s="49">
+        <f t="shared" si="12"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O26" s="49">
+        <f t="shared" si="12"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="51">
+        <f t="shared" si="11"/>
+        <v>0.89379999999999971</v>
+      </c>
+      <c r="R26" s="112">
+        <f t="shared" si="7"/>
+        <v>0.4997000000000007</v>
+      </c>
+      <c r="S26" s="51">
+        <f t="shared" si="8"/>
+        <v>0.2240000000000002</v>
+      </c>
+      <c r="T26" s="113">
+        <f t="shared" si="9"/>
+        <v>-1.7504</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="51">
+        <v>6.4394</v>
+      </c>
+      <c r="C27" s="112">
+        <v>8.3175000000000008</v>
+      </c>
+      <c r="D27" s="51">
+        <v>9.4535</v>
+      </c>
+      <c r="E27" s="113">
+        <v>4.9396000000000004</v>
+      </c>
+      <c r="G27" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H27" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I27" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J27" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L27" s="49">
+        <f t="shared" ref="L27:O27" si="13">L17</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M27" s="49">
+        <f t="shared" si="13"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N27" s="49">
+        <f t="shared" si="13"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O27" s="49">
+        <f t="shared" si="13"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q27" s="51">
+        <f t="shared" si="11"/>
+        <v>1.6905000000000001</v>
+      </c>
+      <c r="R27" s="112">
+        <f t="shared" si="7"/>
+        <v>0.46830000000000105</v>
+      </c>
+      <c r="S27" s="51">
+        <f t="shared" si="8"/>
+        <v>2.8746</v>
+      </c>
+      <c r="T27" s="113">
+        <f t="shared" si="9"/>
+        <v>-2.2219999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="51">
+        <v>4.8635000000000002</v>
+      </c>
+      <c r="C28" s="112">
+        <v>9.7848000000000006</v>
+      </c>
+      <c r="D28" s="51">
+        <v>8.7311999999999994</v>
+      </c>
+      <c r="E28" s="113">
+        <v>8.6486000000000001</v>
+      </c>
+      <c r="G28" s="118">
+        <v>6.5846</v>
+      </c>
+      <c r="H28" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="I28" s="78">
+        <v>6.5846</v>
+      </c>
+      <c r="J28" s="45">
+        <v>6.5846</v>
+      </c>
+      <c r="L28" s="49">
+        <f t="shared" ref="L28:O28" si="14">L18</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M28" s="49">
+        <f t="shared" si="14"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N28" s="49">
+        <f t="shared" si="14"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O28" s="49">
+        <f t="shared" si="14"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q28" s="51">
+        <f t="shared" si="11"/>
+        <v>0.11460000000000026</v>
+      </c>
+      <c r="R28" s="112">
+        <f t="shared" si="7"/>
+        <v>1.9356000000000009</v>
+      </c>
+      <c r="S28" s="51">
+        <f t="shared" si="8"/>
+        <v>2.1522999999999994</v>
+      </c>
+      <c r="T28" s="113">
+        <f t="shared" si="9"/>
+        <v>1.4870000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="51">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="C29" s="112">
+        <v>6.2697000000000003</v>
+      </c>
+      <c r="D29" s="51">
+        <v>6.4198000000000004</v>
+      </c>
+      <c r="E29" s="113">
+        <v>5.1459000000000001</v>
+      </c>
+      <c r="G29" s="43">
+        <v>6.5846</v>
+      </c>
+      <c r="H29" s="79">
+        <v>6.5846</v>
+      </c>
+      <c r="I29" s="79">
+        <v>6.5846</v>
+      </c>
+      <c r="J29" s="46">
+        <v>6.5846</v>
+      </c>
+      <c r="L29" s="50">
+        <f t="shared" ref="L29:O29" si="15">L19</f>
+        <v>-1.8357000000000001</v>
+      </c>
+      <c r="M29" s="50">
+        <f t="shared" si="15"/>
+        <v>1.2645999999999997</v>
+      </c>
+      <c r="N29" s="50">
+        <f t="shared" si="15"/>
+        <v>-5.7000000000000384E-3</v>
+      </c>
+      <c r="O29" s="50">
+        <f t="shared" si="15"/>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q29" s="51">
+        <f t="shared" si="11"/>
+        <v>-4.4221000000000004</v>
+      </c>
+      <c r="R29" s="112">
+        <f t="shared" si="7"/>
+        <v>-1.5794999999999995</v>
+      </c>
+      <c r="S29" s="51">
+        <f t="shared" si="8"/>
+        <v>-0.15909999999999958</v>
+      </c>
+      <c r="T29" s="113">
+        <f t="shared" si="9"/>
+        <v>-2.0156999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:O12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/toothpaste.xlsx
+++ b/data/toothpaste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E68581-F60B-4796-A08E-2E77CF028E46}"/>
+  <xr:revisionPtr revIDLastSave="539" documentId="8_{0DF32456-55C8-44A9-B7F7-2296BF79388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC911F84-FC5F-4C50-BCEE-59C89ABFA4CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
     <sheet name="lifeboat" sheetId="7" r:id="rId7"/>
+    <sheet name="sprm" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="164">
   <si>
     <t>Brush</t>
   </si>
@@ -1226,6 +1227,42 @@
   <si>
     <t>Residual Errors</t>
   </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Sienna</t>
+  </si>
+  <si>
+    <t>Sonata</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Passat</t>
+  </si>
+  <si>
+    <t>Mini-van</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
 </sst>
 </file>
 
@@ -1233,9 +1270,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,6 +1499,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1650,7 +1710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2099,6 +2159,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2144,10 +2310,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2166,7 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2179,9 +2344,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,7 +2366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2223,10 +2384,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2236,9 +2394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2267,11 +2422,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2325,136 +2477,157 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2696,7 +2869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3070,7 +3243,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
@@ -3081,57 +3254,57 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4">
         <v>23.093333333333334</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4">
         <v>138.56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5">
         <v>19.97666666666667</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5">
         <v>119.86000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6">
         <v>22.675000000000001</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6">
         <v>136.05000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7">
         <v>25.313333333333343</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7">
         <v>151.88000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8">
         <v>22.764583333333331</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8">
         <v>546.34999999999991</v>
       </c>
     </row>
@@ -3165,16 +3338,16 @@
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="80" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3186,40 +3359,40 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="L2" s="75" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="L2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="31" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3236,36 +3409,36 @@
       <c r="E3" s="1">
         <v>24.39</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="62">
         <f>AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="63">
         <f t="shared" ref="H3:J8" si="0">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="63">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="64">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="63">
+      <c r="K3" s="37"/>
+      <c r="L3" s="57">
         <f t="shared" ref="L3:O8" si="1">AVERAGE(B$3:B$8)</f>
         <v>23.093333333333334</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="57">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N3" s="63">
+      <c r="N3" s="57">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="60">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3275,11 +3448,11 @@
       <c r="Y3" s="1">
         <v>1</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="22">
         <f>SUMSQ(G13:J18)</f>
         <v>12437.430104166664</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="22">
         <f>Z3/Y3</f>
         <v>12437.430104166664</v>
       </c>
@@ -3297,36 +3470,36 @@
       <c r="E4" s="1">
         <v>21.45</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="65">
         <f t="shared" ref="G4:G8" si="2">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="60">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="64">
+      <c r="K4" s="37"/>
+      <c r="L4" s="58">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="58">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="58">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="60">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3336,15 +3509,15 @@
       <c r="Y4" s="1">
         <v>3</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4" s="22">
         <f>SUMSQ(L13:O18)</f>
         <v>86.308245833333544</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="22">
         <f t="shared" ref="AA4:AA5" si="3">Z4/Y4</f>
         <v>28.769415277777849</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="22">
         <f>AA4/AA5</f>
         <v>3.8216608725476551</v>
       </c>
@@ -3362,36 +3535,36 @@
       <c r="E5" s="1">
         <v>32.74</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="65">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="60">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="64">
+      <c r="K5" s="37"/>
+      <c r="L5" s="58">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="58">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="58">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O5" s="66">
+      <c r="O5" s="60">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3401,11 +3574,11 @@
       <c r="Y5" s="1">
         <v>20</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="22">
         <f>SUMSQ(Q13:T18)</f>
         <v>150.55975000000004</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="22">
         <f t="shared" si="3"/>
         <v>7.5279875000000018</v>
       </c>
@@ -3423,36 +3596,36 @@
       <c r="E6" s="1">
         <v>24.21</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="65">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="60">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="64">
+      <c r="K6" s="37"/>
+      <c r="L6" s="58">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="58">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="58">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O6" s="66">
+      <c r="O6" s="60">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3462,7 +3635,7 @@
       <c r="Y6" s="1">
         <v>24</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="22">
         <f>SUMSQ(B3:E8)</f>
         <v>12674.298100000002</v>
       </c>
@@ -3480,36 +3653,36 @@
       <c r="E7" s="1">
         <v>25.67</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="65">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="60">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="64">
+      <c r="K7" s="37"/>
+      <c r="L7" s="58">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="58">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="58">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="60">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
@@ -3527,40 +3700,40 @@
       <c r="E8" s="1">
         <v>23.42</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="66">
         <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="67">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="67">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="61">
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="65">
+      <c r="K8" s="37"/>
+      <c r="L8" s="59">
         <f t="shared" si="1"/>
         <v>23.093333333333334</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="59">
         <f t="shared" si="1"/>
         <v>19.97666666666667</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="59">
         <f t="shared" si="1"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="61">
         <f t="shared" si="1"/>
         <v>25.313333333333343</v>
       </c>
-      <c r="Z8" s="74"/>
+      <c r="Z8" s="68"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="Z10" s="1">
@@ -3569,178 +3742,178 @@
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
     </row>
     <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="L12" s="18" t="s">
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="L12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="82" t="s">
+      <c r="Q12" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18">
+      <c r="B13" s="12">
         <v>19.12</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>18.559999999999999</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <v>25.58</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>24.39</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="62">
         <f>AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="63">
         <f t="shared" ref="H13:J18" si="4">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="63">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="64">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="103">
+      <c r="K13" s="12"/>
+      <c r="L13" s="71">
         <f t="shared" ref="L13:O18" si="5">L3-$H$13</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M13" s="103">
+      <c r="M13" s="71">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N13" s="103">
+      <c r="N13" s="71">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="71">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="109">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="77">
         <f>B13-(G13+L13)</f>
         <v>-3.9733333333333327</v>
       </c>
-      <c r="R13" s="109">
+      <c r="R13" s="77">
         <f t="shared" ref="R13:R18" si="6">C13-(H13+M13)</f>
         <v>-1.4166666666666714</v>
       </c>
-      <c r="S13" s="109">
+      <c r="S13" s="77">
         <f t="shared" ref="S13:S18" si="7">D13-(I13+N13)</f>
         <v>2.9049999999999976</v>
       </c>
-      <c r="T13" s="109">
+      <c r="T13" s="77">
         <f t="shared" ref="T13:T18" si="8">E13-(J13+O13)</f>
         <v>-0.92333333333334267</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <v>24.21</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>20</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <v>23.31</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <v>21.45</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="65">
         <f t="shared" ref="G14:G18" si="9">AVERAGE($B$13:$E$18)</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="60">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="104">
+      <c r="K14" s="12"/>
+      <c r="L14" s="72">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="72">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N14" s="104">
+      <c r="N14" s="72">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O14" s="104">
+      <c r="O14" s="72">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="109">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="77">
         <f t="shared" ref="Q14:Q18" si="10">B14-(G14+L14)</f>
         <v>1.1166666666666671</v>
       </c>
-      <c r="R14" s="109">
+      <c r="R14" s="77">
         <f t="shared" si="6"/>
         <v>2.3333333333329875E-2</v>
       </c>
-      <c r="S14" s="109">
+      <c r="S14" s="77">
         <f t="shared" si="7"/>
         <v>0.63499999999999801</v>
       </c>
-      <c r="T14" s="109">
+      <c r="T14" s="77">
         <f t="shared" si="8"/>
         <v>-3.8633333333333439</v>
       </c>
@@ -3750,72 +3923,72 @@
       </c>
     </row>
     <row r="15" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="12">
         <v>26.88</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>19.87</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <v>18.989999999999998</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <v>32.74</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="65">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="60">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="72">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="72">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N15" s="104">
+      <c r="N15" s="72">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O15" s="104">
+      <c r="O15" s="72">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
-      <c r="P15" s="29" t="s">
+      <c r="P15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="109">
+      <c r="Q15" s="77">
         <f t="shared" si="10"/>
         <v>3.7866666666666653</v>
       </c>
-      <c r="R15" s="109">
+      <c r="R15" s="77">
         <f t="shared" si="6"/>
         <v>-0.10666666666666913</v>
       </c>
-      <c r="S15" s="109">
+      <c r="S15" s="77">
         <f t="shared" si="7"/>
         <v>-3.6850000000000023</v>
       </c>
-      <c r="T15" s="109">
+      <c r="T15" s="77">
         <f t="shared" si="8"/>
         <v>7.4266666666666588</v>
       </c>
@@ -3837,245 +4010,245 @@
       </c>
     </row>
     <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
+      <c r="B16" s="12">
         <v>21.6</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>22.09</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <v>23.09</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="12">
         <v>24.21</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="65">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="60">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="104">
+      <c r="K16" s="12"/>
+      <c r="L16" s="72">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M16" s="104">
+      <c r="M16" s="72">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N16" s="104">
+      <c r="N16" s="72">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O16" s="104">
+      <c r="O16" s="72">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="109">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="77">
         <f t="shared" si="10"/>
         <v>-1.4933333333333323</v>
       </c>
-      <c r="R16" s="109">
+      <c r="R16" s="77">
         <f t="shared" si="6"/>
         <v>2.1133333333333297</v>
       </c>
-      <c r="S16" s="109">
+      <c r="S16" s="77">
         <f t="shared" si="7"/>
         <v>0.41499999999999915</v>
       </c>
-      <c r="T16" s="109">
+      <c r="T16" s="77">
         <f t="shared" si="8"/>
         <v>-1.1033333333333424</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
+      <c r="B17" s="12">
         <v>23.4</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>17.62</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <v>23.81</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="12">
         <v>25.67</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="65">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="33">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="60">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="104">
+      <c r="K17" s="12"/>
+      <c r="L17" s="72">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="72">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N17" s="104">
+      <c r="N17" s="72">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="72">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="109">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="77">
         <f t="shared" si="10"/>
         <v>0.30666666666666487</v>
       </c>
-      <c r="R17" s="109">
+      <c r="R17" s="77">
         <f t="shared" si="6"/>
         <v>-2.3566666666666691</v>
       </c>
-      <c r="S17" s="109">
+      <c r="S17" s="77">
         <f t="shared" si="7"/>
         <v>1.134999999999998</v>
       </c>
-      <c r="T17" s="109">
+      <c r="T17" s="77">
         <f t="shared" si="8"/>
         <v>0.35666666666665847</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
+      <c r="B18" s="12">
         <v>23.35</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>21.72</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <v>21.27</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <v>23.42</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="66">
         <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="67">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="67">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="61">
         <f t="shared" si="4"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="105">
+      <c r="K18" s="12"/>
+      <c r="L18" s="73">
         <f t="shared" si="5"/>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M18" s="105">
+      <c r="M18" s="73">
         <f t="shared" si="5"/>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N18" s="105">
+      <c r="N18" s="73">
         <f t="shared" si="5"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O18" s="105">
+      <c r="O18" s="73">
         <f t="shared" si="5"/>
         <v>2.5487500000000125</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="109">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="77">
         <f t="shared" si="10"/>
         <v>0.25666666666666771</v>
       </c>
-      <c r="R18" s="109">
+      <c r="R18" s="77">
         <f t="shared" si="6"/>
         <v>1.7433333333333287</v>
       </c>
-      <c r="S18" s="109">
+      <c r="S18" s="77">
         <f t="shared" si="7"/>
         <v>-1.4050000000000011</v>
       </c>
-      <c r="T18" s="109">
+      <c r="T18" s="77">
         <f t="shared" si="8"/>
         <v>-1.8933333333333415</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="80" t="s">
+      <c r="L23" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="L24" s="18" t="s">
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="L24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="95" t="s">
+      <c r="Q24" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
     </row>
     <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
@@ -4090,21 +4263,21 @@
       <c r="E25" s="1">
         <v>24.39</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
     </row>
     <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53">
+      <c r="B26" s="47">
         <v>24.21</v>
       </c>
       <c r="C26" s="1">
@@ -4116,19 +4289,19 @@
       <c r="E26" s="1">
         <v>21.45</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="66"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="Y26" s="33" t="s">
+      <c r="G26" s="74"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="60"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="Y26" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4145,27 +4318,27 @@
       <c r="E27" s="1">
         <v>32.74</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="34" t="s">
+      <c r="G27" s="65"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="34" t="s">
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
     </row>
     <row r="28" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
@@ -4180,24 +4353,24 @@
       <c r="E28" s="1">
         <v>24.21</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="66"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="60"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
     </row>
     <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>23.4</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="27">
         <v>17.62</v>
       </c>
       <c r="D29" s="1">
@@ -4206,27 +4379,27 @@
       <c r="E29" s="1">
         <v>25.67</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="54">
+      <c r="G29" s="65"/>
+      <c r="H29" s="48">
         <f>H17</f>
         <v>22.764583333333331</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="66"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="108">
+      <c r="I29" s="33"/>
+      <c r="J29" s="60"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="76">
         <f>M17</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="108">
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="76">
         <f>R17</f>
         <v>-2.3566666666666691</v>
       </c>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
     </row>
     <row r="30" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
@@ -4241,718 +4414,694 @@
       <c r="E30" s="1">
         <v>23.42</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="67"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="61"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H32" s="55"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="L34" s="18" t="s">
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="L34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="95" t="s">
+      <c r="Q34" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
     </row>
     <row r="35" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
-      <c r="L35" s="92" t="s">
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
+      <c r="L35" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="92" t="s">
+      <c r="M35" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="92" t="s">
+      <c r="N35" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="92" t="s">
+      <c r="O35" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="109" t="s">
+      <c r="Q35" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="R35" s="109" t="s">
+      <c r="R35" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="S35" s="109" t="s">
+      <c r="S35" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="T35" s="109" t="s">
+      <c r="T35" s="77" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="88"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="Q36" s="109" t="s">
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="Q36" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="R36" s="109" t="s">
+      <c r="R36" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="S36" s="109" t="s">
+      <c r="S36" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="T36" s="109" t="s">
+      <c r="T36" s="77" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="28" t="s">
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="29" t="s">
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q37" s="109" t="s">
+      <c r="Q37" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="R37" s="109" t="s">
+      <c r="R37" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="S37" s="109" t="s">
+      <c r="S37" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="T37" s="109" t="s">
+      <c r="T37" s="77" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="88"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="Q38" s="109" t="s">
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="100"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="Q38" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="R38" s="109" t="s">
+      <c r="R38" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="S38" s="109" t="s">
+      <c r="S38" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="T38" s="109" t="s">
+      <c r="T38" s="77" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="88"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="Q39" s="109" t="s">
+      <c r="G39" s="98"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="Q39" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="109" t="s">
+      <c r="R39" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="S39" s="109" t="s">
+      <c r="S39" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="109" t="s">
+      <c r="T39" s="77" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="94"/>
-      <c r="Q40" s="109" t="s">
+      <c r="G40" s="101"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="Q40" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="R40" s="109" t="s">
+      <c r="R40" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="S40" s="109" t="s">
+      <c r="S40" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="T40" s="109" t="s">
+      <c r="T40" s="77" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="80" t="s">
+      <c r="L44" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
     </row>
     <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="82" t="s">
+      <c r="G45" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="L45" s="18" t="s">
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="L45" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="82" t="s">
+      <c r="Q45" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
     </row>
     <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="85"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="97"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="91"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
     </row>
     <row r="47" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
     </row>
     <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="28" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="86"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="28" t="s">
+      <c r="G48" s="98"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="29" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
     </row>
     <row r="49" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="88"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="100"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="88"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="100"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
     </row>
     <row r="51" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="103"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="57" t="s">
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="81" t="s">
+      <c r="G53" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="57" t="s">
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="81" t="s">
+      <c r="L53" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="57" t="s">
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="81" t="s">
+      <c r="Q53" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="52"/>
-      <c r="C59" s="76" t="s">
+      <c r="B59" s="39"/>
+      <c r="C59" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="G59" s="82" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="G59" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="L59" s="80" t="s">
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="L59" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="Q59" s="82" t="s">
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="Q59" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="82"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
     </row>
     <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="42"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
     </row>
     <row r="61" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="42"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="93"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="92"/>
+      <c r="N61" s="92"/>
+      <c r="O61" s="92"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
     </row>
     <row r="62" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="42"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="77" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="77" t="s">
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="29" t="s">
+      <c r="L62" s="92"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
     </row>
     <row r="63" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="L63" s="93"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="93"/>
-      <c r="O63" s="93"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="L63" s="92"/>
+      <c r="M63" s="92"/>
+      <c r="N63" s="92"/>
+      <c r="O63" s="92"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
     </row>
     <row r="64" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="42"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="97"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92"/>
+      <c r="N64" s="92"/>
+      <c r="O64" s="92"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
     </row>
     <row r="65" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="42"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="97"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="94"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="57" t="s">
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="81" t="s">
+      <c r="G67" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="57" t="s">
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="81" t="s">
+      <c r="L67" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="81"/>
-      <c r="N67" s="81"/>
-      <c r="O67" s="81"/>
-      <c r="P67" s="57" t="s">
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="81" t="s">
+      <c r="Q67" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="81"/>
-      <c r="S67" s="81"/>
-      <c r="T67" s="81"/>
+      <c r="R67" s="86"/>
+      <c r="S67" s="86"/>
+      <c r="T67" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -4969,6 +5118,30 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5373,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AY85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
@@ -5402,25 +5575,25 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -5437,46 +5610,46 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="AA6" s="18" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="AA6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AB6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="AC6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5484,173 +5657,173 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="99" t="s">
+      <c r="U7" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="99" t="s">
+      <c r="Z7" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AB7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="99"/>
-      <c r="V8" s="15" t="s">
+      <c r="U8" s="104"/>
+      <c r="V8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="15" t="s">
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AB8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="17" t="s">
+      <c r="AC8" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="100" t="s">
+      <c r="U9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="100" t="s">
+      <c r="Z9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AA9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="20" t="s">
+      <c r="AB9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AC9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="100"/>
-      <c r="V10" s="15" t="s">
+      <c r="U10" s="105"/>
+      <c r="V10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="X10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="15" t="s">
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AB10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="17" t="s">
+      <c r="AC10" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5660,123 +5833,97 @@
       </c>
     </row>
     <row r="18" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB24" s="24">
+      <c r="AB24" s="22">
         <f>AVERAGE(AB28:AB33)</f>
         <v>23.093333333333334</v>
       </c>
-      <c r="AC24" s="24">
+      <c r="AC24" s="22">
         <f t="shared" ref="AC24:AE24" si="0">AVERAGE(AC28:AC33)</f>
         <v>19.97666666666667</v>
       </c>
-      <c r="AD24" s="24">
+      <c r="AD24" s="22">
         <f t="shared" si="0"/>
         <v>22.675000000000001</v>
       </c>
-      <c r="AE24" s="24">
+      <c r="AE24" s="22">
         <f t="shared" si="0"/>
         <v>25.313333333333343</v>
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="98" t="s">
+      <c r="AB26" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="98"/>
-      <c r="AH26" s="98" t="s">
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AH26" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AN26" s="98" t="s">
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AN26" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="98"/>
-      <c r="AP26" s="98"/>
-      <c r="AQ26" s="98"/>
+      <c r="AO26" s="106"/>
+      <c r="AP26" s="106"/>
+      <c r="AQ26" s="106"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -5788,70 +5935,70 @@
       <c r="I27" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="34">
         <v>19.12</v>
       </c>
-      <c r="R27" s="39">
+      <c r="R27" s="35">
         <v>24.21</v>
       </c>
-      <c r="S27" s="39">
+      <c r="S27" s="35">
         <v>26.88</v>
       </c>
-      <c r="T27" s="39">
+      <c r="T27" s="35">
         <v>21.6</v>
       </c>
-      <c r="U27" s="39">
+      <c r="U27" s="35">
         <v>23.4</v>
       </c>
-      <c r="V27" s="40">
+      <c r="V27" s="36">
         <v>23.35</v>
       </c>
-      <c r="AB27" s="18" t="s">
+      <c r="AB27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC27" s="18" t="s">
+      <c r="AC27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AD27" s="18" t="s">
+      <c r="AD27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AE27" s="18" t="s">
+      <c r="AE27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AN27" s="18" t="s">
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AN27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AO27" s="18" t="s">
+      <c r="AO27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AP27" s="18" t="s">
+      <c r="AP27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AQ27" s="18" t="s">
+      <c r="AQ27" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="G28" s="22">
+      <c r="G28" s="20">
         <v>4</v>
       </c>
       <c r="H28" t="s">
@@ -5860,84 +6007,84 @@
       <c r="I28">
         <v>19.12</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>19.12</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="17">
         <v>25.58</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <v>24.39</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="34">
         <v>18.559999999999999</v>
       </c>
-      <c r="R28" s="39">
+      <c r="R28" s="35">
         <v>20</v>
       </c>
-      <c r="S28" s="39">
+      <c r="S28" s="35">
         <v>19.87</v>
       </c>
-      <c r="T28" s="39">
+      <c r="T28" s="35">
         <v>22.09</v>
       </c>
-      <c r="U28" s="39">
+      <c r="U28" s="35">
         <v>17.62</v>
       </c>
-      <c r="V28" s="40">
+      <c r="V28" s="36">
         <v>21.72</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AB28" s="8">
         <v>19.12</v>
       </c>
-      <c r="AC28" s="19">
+      <c r="AC28" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="17">
         <v>25.58</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AE28" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="99" t="s">
+      <c r="AG28" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="AH28" s="9">
+      <c r="AH28" s="8">
         <v>19.12</v>
       </c>
-      <c r="AI28" s="10">
+      <c r="AI28" s="9">
         <v>18.559999999999999</v>
       </c>
-      <c r="AJ28" s="10">
+      <c r="AJ28" s="9">
         <v>25.58</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AK28" s="10">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="99" t="s">
+      <c r="AM28" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="AN28" s="9">
+      <c r="AN28" s="8">
         <v>19.12</v>
       </c>
-      <c r="AO28" s="19">
+      <c r="AO28" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="AP28" s="19">
+      <c r="AP28" s="17">
         <v>25.58</v>
       </c>
-      <c r="AQ28" s="11">
+      <c r="AQ28" s="10">
         <v>24.39</v>
       </c>
     </row>
     <row r="29" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="G29" s="22">
+      <c r="G29" s="20">
         <v>7</v>
       </c>
       <c r="H29" t="s">
@@ -5946,80 +6093,80 @@
       <c r="I29">
         <v>24.21</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="11">
         <v>24.21</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="18">
         <v>20</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="18">
         <v>23.31</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="13">
         <v>21.45</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="34">
         <v>25.58</v>
       </c>
-      <c r="R29" s="39">
+      <c r="R29" s="35">
         <v>23.31</v>
       </c>
-      <c r="S29" s="39">
+      <c r="S29" s="35">
         <v>18.989999999999998</v>
       </c>
-      <c r="T29" s="39">
+      <c r="T29" s="35">
         <v>23.09</v>
       </c>
-      <c r="U29" s="39">
+      <c r="U29" s="35">
         <v>23.81</v>
       </c>
-      <c r="V29" s="40">
+      <c r="V29" s="36">
         <v>21.27</v>
       </c>
-      <c r="AB29" s="12">
+      <c r="AB29" s="11">
         <v>24.21</v>
       </c>
-      <c r="AC29" s="20">
+      <c r="AC29" s="18">
         <v>20</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AD29" s="18">
         <v>23.31</v>
       </c>
-      <c r="AE29" s="14">
+      <c r="AE29" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="12">
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="11">
         <v>24.21</v>
       </c>
-      <c r="AI29" s="13">
+      <c r="AI29" s="12">
         <v>20</v>
       </c>
-      <c r="AJ29" s="13">
+      <c r="AJ29" s="12">
         <v>23.31</v>
       </c>
-      <c r="AK29" s="14">
+      <c r="AK29" s="13">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="99"/>
-      <c r="AN29" s="12">
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="11">
         <v>24.21</v>
       </c>
-      <c r="AO29" s="20">
+      <c r="AO29" s="18">
         <v>20</v>
       </c>
-      <c r="AP29" s="20">
+      <c r="AP29" s="18">
         <v>23.31</v>
       </c>
-      <c r="AQ29" s="14">
+      <c r="AQ29" s="13">
         <v>21.45</v>
       </c>
     </row>
     <row r="30" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="G30" s="22">
+      <c r="G30" s="20">
         <v>10</v>
       </c>
       <c r="H30" t="s">
@@ -6028,80 +6175,80 @@
       <c r="I30">
         <v>26.88</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="11">
         <v>26.88</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <v>19.87</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="18">
         <v>18.989999999999998</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="13">
         <v>32.74</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="34">
         <v>24.39</v>
       </c>
-      <c r="R30" s="39">
+      <c r="R30" s="35">
         <v>21.45</v>
       </c>
-      <c r="S30" s="39">
+      <c r="S30" s="35">
         <v>32.74</v>
       </c>
-      <c r="T30" s="39">
+      <c r="T30" s="35">
         <v>24.21</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="35">
         <v>25.67</v>
       </c>
-      <c r="V30" s="40">
+      <c r="V30" s="36">
         <v>23.42</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="11">
         <v>26.88</v>
       </c>
-      <c r="AC30" s="20">
+      <c r="AC30" s="18">
         <v>19.87</v>
       </c>
-      <c r="AD30" s="20">
+      <c r="AD30" s="18">
         <v>18.989999999999998</v>
       </c>
-      <c r="AE30" s="14">
+      <c r="AE30" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="12">
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="11">
         <v>26.88</v>
       </c>
-      <c r="AI30" s="13">
+      <c r="AI30" s="12">
         <v>19.87</v>
       </c>
-      <c r="AJ30" s="13">
+      <c r="AJ30" s="12">
         <v>18.989999999999998</v>
       </c>
-      <c r="AK30" s="14">
+      <c r="AK30" s="13">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="99"/>
-      <c r="AN30" s="15">
+      <c r="AM30" s="104"/>
+      <c r="AN30" s="14">
         <v>26.88</v>
       </c>
-      <c r="AO30" s="21">
+      <c r="AO30" s="19">
         <v>19.87</v>
       </c>
-      <c r="AP30" s="21">
+      <c r="AP30" s="19">
         <v>18.989999999999998</v>
       </c>
-      <c r="AQ30" s="17">
+      <c r="AQ30" s="16">
         <v>32.74</v>
       </c>
     </row>
     <row r="31" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="G31" s="22">
+      <c r="G31" s="20">
         <v>17</v>
       </c>
       <c r="H31" t="s">
@@ -6110,63 +6257,63 @@
       <c r="I31">
         <v>21.6</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="11">
         <v>21.6</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="18">
         <v>22.09</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="18">
         <v>23.09</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <v>24.21</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AB31" s="11">
         <v>21.6</v>
       </c>
-      <c r="AC31" s="20">
+      <c r="AC31" s="18">
         <v>22.09</v>
       </c>
-      <c r="AD31" s="20">
+      <c r="AD31" s="18">
         <v>23.09</v>
       </c>
-      <c r="AE31" s="14">
+      <c r="AE31" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="99" t="s">
+      <c r="AG31" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AH31" s="9">
+      <c r="AH31" s="8">
         <v>21.6</v>
       </c>
-      <c r="AI31" s="10">
+      <c r="AI31" s="9">
         <v>22.09</v>
       </c>
-      <c r="AJ31" s="10">
+      <c r="AJ31" s="9">
         <v>23.09</v>
       </c>
-      <c r="AK31" s="11">
+      <c r="AK31" s="10">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="99" t="s">
+      <c r="AM31" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AN31" s="12">
+      <c r="AN31" s="11">
         <v>21.6</v>
       </c>
-      <c r="AO31" s="20">
+      <c r="AO31" s="18">
         <v>22.09</v>
       </c>
-      <c r="AP31" s="20">
+      <c r="AP31" s="18">
         <v>23.09</v>
       </c>
-      <c r="AQ31" s="14">
+      <c r="AQ31" s="13">
         <v>24.21</v>
       </c>
     </row>
     <row r="32" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="G32" s="22">
+      <c r="G32" s="20">
         <v>18</v>
       </c>
       <c r="H32" t="s">
@@ -6175,59 +6322,59 @@
       <c r="I32">
         <v>23.4</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="11">
         <v>23.4</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="18">
         <v>17.62</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="18">
         <v>23.81</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AB32" s="12">
+      <c r="AB32" s="11">
         <v>23.4</v>
       </c>
-      <c r="AC32" s="20">
+      <c r="AC32" s="18">
         <v>17.62</v>
       </c>
-      <c r="AD32" s="20">
+      <c r="AD32" s="18">
         <v>23.81</v>
       </c>
-      <c r="AE32" s="14">
+      <c r="AE32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="12">
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="11">
         <v>23.4</v>
       </c>
-      <c r="AI32" s="13">
+      <c r="AI32" s="12">
         <v>17.62</v>
       </c>
-      <c r="AJ32" s="13">
+      <c r="AJ32" s="12">
         <v>23.81</v>
       </c>
-      <c r="AK32" s="14">
+      <c r="AK32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="99"/>
-      <c r="AN32" s="12">
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="11">
         <v>23.4</v>
       </c>
-      <c r="AO32" s="20">
+      <c r="AO32" s="18">
         <v>17.62</v>
       </c>
-      <c r="AP32" s="20">
+      <c r="AP32" s="18">
         <v>23.81</v>
       </c>
-      <c r="AQ32" s="14">
+      <c r="AQ32" s="13">
         <v>25.67</v>
       </c>
     </row>
     <row r="33" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G33" s="22">
+      <c r="G33" s="20">
         <v>21</v>
       </c>
       <c r="H33" t="s">
@@ -6236,59 +6383,59 @@
       <c r="I33">
         <v>23.35</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="14">
         <v>23.35</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="19">
         <v>21.72</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="19">
         <v>21.27</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AB33" s="15">
+      <c r="AB33" s="14">
         <v>23.35</v>
       </c>
-      <c r="AC33" s="21">
+      <c r="AC33" s="19">
         <v>21.72</v>
       </c>
-      <c r="AD33" s="21">
+      <c r="AD33" s="19">
         <v>21.27</v>
       </c>
-      <c r="AE33" s="17">
+      <c r="AE33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="15">
+      <c r="AG33" s="104"/>
+      <c r="AH33" s="14">
         <v>23.35</v>
       </c>
-      <c r="AI33" s="16">
+      <c r="AI33" s="15">
         <v>21.72</v>
       </c>
-      <c r="AJ33" s="16">
+      <c r="AJ33" s="15">
         <v>21.27</v>
       </c>
-      <c r="AK33" s="17">
+      <c r="AK33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="99"/>
-      <c r="AN33" s="15">
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="14">
         <v>23.35</v>
       </c>
-      <c r="AO33" s="21">
+      <c r="AO33" s="19">
         <v>21.72</v>
       </c>
-      <c r="AP33" s="21">
+      <c r="AP33" s="19">
         <v>21.27</v>
       </c>
-      <c r="AQ33" s="17">
+      <c r="AQ33" s="16">
         <v>23.42</v>
       </c>
     </row>
     <row r="34" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G34" s="22">
+      <c r="G34" s="20">
         <v>6</v>
       </c>
       <c r="H34" t="s">
@@ -6299,7 +6446,7 @@
       </c>
     </row>
     <row r="35" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G35" s="22">
+      <c r="G35" s="20">
         <v>9</v>
       </c>
       <c r="H35" t="s">
@@ -6310,7 +6457,7 @@
       </c>
     </row>
     <row r="36" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G36" s="22">
+      <c r="G36" s="20">
         <v>11</v>
       </c>
       <c r="H36" t="s">
@@ -6319,49 +6466,49 @@
       <c r="I36">
         <v>19.87</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AB36" s="18" t="s">
+      <c r="AB36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AC36" s="18" t="s">
+      <c r="AC36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AD36" s="18" t="s">
+      <c r="AD36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AE36" s="18" t="s">
+      <c r="AE36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AN36" s="18" t="s">
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AN36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AO36" s="18" t="s">
+      <c r="AO36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AP36" s="18" t="s">
+      <c r="AP36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AQ36" s="18" t="s">
+      <c r="AQ36" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G37" s="22">
+      <c r="G37" s="20">
         <v>14</v>
       </c>
       <c r="H37" t="s">
@@ -6370,63 +6517,63 @@
       <c r="I37">
         <v>22.09</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="34">
         <v>23.09</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="21">
         <v>19.98</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="21">
         <v>22.68</v>
       </c>
-      <c r="N37" s="40">
+      <c r="N37" s="36">
         <v>25.31</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AB37" s="8">
         <v>19.12</v>
       </c>
-      <c r="AC37" s="19">
+      <c r="AC37" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="AD37" s="19">
+      <c r="AD37" s="17">
         <v>25.58</v>
       </c>
-      <c r="AE37" s="11">
+      <c r="AE37" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="99" t="s">
+      <c r="AG37" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AH37" s="9">
+      <c r="AH37" s="8">
         <v>19.12</v>
       </c>
-      <c r="AI37" s="10">
+      <c r="AI37" s="9">
         <v>18.559999999999999</v>
       </c>
-      <c r="AJ37" s="10">
+      <c r="AJ37" s="9">
         <v>25.58</v>
       </c>
-      <c r="AK37" s="11">
+      <c r="AK37" s="10">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="100" t="s">
+      <c r="AM37" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="AN37" s="9">
+      <c r="AN37" s="8">
         <v>19.12</v>
       </c>
-      <c r="AO37" s="19">
+      <c r="AO37" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="AP37" s="19">
+      <c r="AP37" s="17">
         <v>25.58</v>
       </c>
-      <c r="AQ37" s="11">
+      <c r="AQ37" s="10">
         <v>24.39</v>
       </c>
     </row>
     <row r="38" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G38" s="22">
+      <c r="G38" s="20">
         <v>23</v>
       </c>
       <c r="H38" t="s">
@@ -6435,47 +6582,47 @@
       <c r="I38">
         <v>17.62</v>
       </c>
-      <c r="AB38" s="12">
+      <c r="AB38" s="11">
         <v>24.21</v>
       </c>
-      <c r="AC38" s="20">
+      <c r="AC38" s="18">
         <v>20</v>
       </c>
-      <c r="AD38" s="20">
+      <c r="AD38" s="18">
         <v>23.31</v>
       </c>
-      <c r="AE38" s="14">
+      <c r="AE38" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="99"/>
-      <c r="AH38" s="12">
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="11">
         <v>24.21</v>
       </c>
-      <c r="AI38" s="13">
+      <c r="AI38" s="12">
         <v>20</v>
       </c>
-      <c r="AJ38" s="13">
+      <c r="AJ38" s="12">
         <v>23.31</v>
       </c>
-      <c r="AK38" s="14">
+      <c r="AK38" s="13">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="100"/>
-      <c r="AN38" s="12">
+      <c r="AM38" s="105"/>
+      <c r="AN38" s="11">
         <v>24.21</v>
       </c>
-      <c r="AO38" s="20">
+      <c r="AO38" s="18">
         <v>20</v>
       </c>
-      <c r="AP38" s="20">
+      <c r="AP38" s="18">
         <v>23.31</v>
       </c>
-      <c r="AQ38" s="14">
+      <c r="AQ38" s="13">
         <v>21.45</v>
       </c>
     </row>
     <row r="39" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G39" s="22">
+      <c r="G39" s="20">
         <v>24</v>
       </c>
       <c r="H39" t="s">
@@ -6484,47 +6631,47 @@
       <c r="I39">
         <v>21.72</v>
       </c>
-      <c r="AB39" s="12">
+      <c r="AB39" s="11">
         <v>26.88</v>
       </c>
-      <c r="AC39" s="20">
+      <c r="AC39" s="18">
         <v>19.87</v>
       </c>
-      <c r="AD39" s="20">
+      <c r="AD39" s="18">
         <v>18.989999999999998</v>
       </c>
-      <c r="AE39" s="14">
+      <c r="AE39" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="99"/>
-      <c r="AH39" s="12">
+      <c r="AG39" s="104"/>
+      <c r="AH39" s="11">
         <v>26.88</v>
       </c>
-      <c r="AI39" s="13">
+      <c r="AI39" s="12">
         <v>19.87</v>
       </c>
-      <c r="AJ39" s="13">
+      <c r="AJ39" s="12">
         <v>18.989999999999998</v>
       </c>
-      <c r="AK39" s="14">
+      <c r="AK39" s="13">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="100"/>
-      <c r="AN39" s="15">
+      <c r="AM39" s="105"/>
+      <c r="AN39" s="14">
         <v>26.88</v>
       </c>
-      <c r="AO39" s="21">
+      <c r="AO39" s="19">
         <v>19.87</v>
       </c>
-      <c r="AP39" s="21">
+      <c r="AP39" s="19">
         <v>18.989999999999998</v>
       </c>
-      <c r="AQ39" s="17">
+      <c r="AQ39" s="16">
         <v>32.74</v>
       </c>
     </row>
     <row r="40" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G40" s="22">
+      <c r="G40" s="20">
         <v>2</v>
       </c>
       <c r="H40" t="s">
@@ -6533,51 +6680,51 @@
       <c r="I40">
         <v>25.58</v>
       </c>
-      <c r="AB40" s="12">
+      <c r="AB40" s="11">
         <v>21.6</v>
       </c>
-      <c r="AC40" s="20">
+      <c r="AC40" s="18">
         <v>22.09</v>
       </c>
-      <c r="AD40" s="20">
+      <c r="AD40" s="18">
         <v>23.09</v>
       </c>
-      <c r="AE40" s="14">
+      <c r="AE40" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="99" t="s">
+      <c r="AG40" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="AH40" s="9">
+      <c r="AH40" s="8">
         <v>21.6</v>
       </c>
-      <c r="AI40" s="10">
+      <c r="AI40" s="9">
         <v>22.09</v>
       </c>
-      <c r="AJ40" s="10">
+      <c r="AJ40" s="9">
         <v>23.09</v>
       </c>
-      <c r="AK40" s="11">
+      <c r="AK40" s="10">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="100" t="s">
+      <c r="AM40" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AN40" s="12">
+      <c r="AN40" s="11">
         <v>21.6</v>
       </c>
-      <c r="AO40" s="20">
+      <c r="AO40" s="18">
         <v>22.09</v>
       </c>
-      <c r="AP40" s="20">
+      <c r="AP40" s="18">
         <v>23.09</v>
       </c>
-      <c r="AQ40" s="14">
+      <c r="AQ40" s="13">
         <v>24.21</v>
       </c>
     </row>
     <row r="41" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G41" s="22">
+      <c r="G41" s="20">
         <v>8</v>
       </c>
       <c r="H41" t="s">
@@ -6586,47 +6733,47 @@
       <c r="I41">
         <v>23.31</v>
       </c>
-      <c r="AB41" s="12">
+      <c r="AB41" s="11">
         <v>23.4</v>
       </c>
-      <c r="AC41" s="20">
+      <c r="AC41" s="18">
         <v>17.62</v>
       </c>
-      <c r="AD41" s="20">
+      <c r="AD41" s="18">
         <v>23.81</v>
       </c>
-      <c r="AE41" s="14">
+      <c r="AE41" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="99"/>
-      <c r="AH41" s="12">
+      <c r="AG41" s="104"/>
+      <c r="AH41" s="11">
         <v>23.4</v>
       </c>
-      <c r="AI41" s="13">
+      <c r="AI41" s="12">
         <v>17.62</v>
       </c>
-      <c r="AJ41" s="13">
+      <c r="AJ41" s="12">
         <v>23.81</v>
       </c>
-      <c r="AK41" s="14">
+      <c r="AK41" s="13">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="100"/>
-      <c r="AN41" s="12">
+      <c r="AM41" s="105"/>
+      <c r="AN41" s="11">
         <v>23.4</v>
       </c>
-      <c r="AO41" s="20">
+      <c r="AO41" s="18">
         <v>17.62</v>
       </c>
-      <c r="AP41" s="20">
+      <c r="AP41" s="18">
         <v>23.81</v>
       </c>
-      <c r="AQ41" s="14">
+      <c r="AQ41" s="13">
         <v>25.67</v>
       </c>
     </row>
     <row r="42" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G42" s="22">
+      <c r="G42" s="20">
         <v>13</v>
       </c>
       <c r="H42" t="s">
@@ -6635,47 +6782,47 @@
       <c r="I42">
         <v>18.989999999999998</v>
       </c>
-      <c r="AB42" s="15">
+      <c r="AB42" s="14">
         <v>23.35</v>
       </c>
-      <c r="AC42" s="21">
+      <c r="AC42" s="19">
         <v>21.72</v>
       </c>
-      <c r="AD42" s="21">
+      <c r="AD42" s="19">
         <v>21.27</v>
       </c>
-      <c r="AE42" s="17">
+      <c r="AE42" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="99"/>
-      <c r="AH42" s="15">
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="14">
         <v>23.35</v>
       </c>
-      <c r="AI42" s="16">
+      <c r="AI42" s="15">
         <v>21.72</v>
       </c>
-      <c r="AJ42" s="16">
+      <c r="AJ42" s="15">
         <v>21.27</v>
       </c>
-      <c r="AK42" s="17">
+      <c r="AK42" s="16">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="100"/>
-      <c r="AN42" s="15">
+      <c r="AM42" s="105"/>
+      <c r="AN42" s="14">
         <v>23.35</v>
       </c>
-      <c r="AO42" s="21">
+      <c r="AO42" s="19">
         <v>21.72</v>
       </c>
-      <c r="AP42" s="21">
+      <c r="AP42" s="19">
         <v>21.27</v>
       </c>
-      <c r="AQ42" s="17">
+      <c r="AQ42" s="16">
         <v>23.42</v>
       </c>
     </row>
     <row r="43" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G43" s="22">
+      <c r="G43" s="20">
         <v>15</v>
       </c>
       <c r="H43" t="s">
@@ -6686,7 +6833,7 @@
       </c>
     </row>
     <row r="44" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G44" s="22">
+      <c r="G44" s="20">
         <v>19</v>
       </c>
       <c r="H44" t="s">
@@ -6697,7 +6844,7 @@
       </c>
     </row>
     <row r="45" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G45" s="22">
+      <c r="G45" s="20">
         <v>22</v>
       </c>
       <c r="H45" t="s">
@@ -6709,30 +6856,30 @@
       <c r="AB45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG45" s="18" t="s">
+      <c r="AG45" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="18"/>
-      <c r="AL45" s="18"/>
-      <c r="AM45" s="18" t="s">
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AN45" s="18"/>
-      <c r="AO45" s="18"/>
-      <c r="AQ45" s="18" t="s">
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AQ45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AR45" s="18"/>
-      <c r="AS45" s="18"/>
-      <c r="AT45" s="18"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
       <c r="AV45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G46" s="22">
+      <c r="G46" s="20">
         <v>1</v>
       </c>
       <c r="H46" t="s">
@@ -6741,69 +6888,69 @@
       <c r="I46">
         <v>24.39</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="8">
         <v>19.12</v>
       </c>
-      <c r="AC46" s="10">
+      <c r="AC46" s="9">
         <v>18.559999999999999</v>
       </c>
-      <c r="AD46" s="10">
+      <c r="AD46" s="9">
         <v>25.58</v>
       </c>
-      <c r="AE46" s="11">
+      <c r="AE46" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG46" s="9">
+      <c r="AG46" s="8">
         <v>19.12</v>
       </c>
-      <c r="AH46" s="19">
+      <c r="AH46" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="AI46" s="19">
+      <c r="AI46" s="17">
         <v>25.58</v>
       </c>
-      <c r="AJ46" s="11">
+      <c r="AJ46" s="10">
         <v>24.39</v>
       </c>
-      <c r="AL46" s="9">
+      <c r="AL46" s="8">
         <v>19.12</v>
       </c>
-      <c r="AM46" s="10">
+      <c r="AM46" s="9">
         <v>18.559999999999999</v>
       </c>
-      <c r="AN46" s="10">
+      <c r="AN46" s="9">
         <v>25.58</v>
       </c>
-      <c r="AO46" s="11">
+      <c r="AO46" s="10">
         <v>24.39</v>
       </c>
-      <c r="AQ46" s="9">
+      <c r="AQ46" s="8">
         <v>19.12</v>
       </c>
-      <c r="AR46" s="19">
+      <c r="AR46" s="17">
         <v>18.559999999999999</v>
       </c>
-      <c r="AS46" s="19">
+      <c r="AS46" s="17">
         <v>25.58</v>
       </c>
-      <c r="AT46" s="11">
+      <c r="AT46" s="10">
         <v>24.39</v>
       </c>
-      <c r="AV46" s="23">
+      <c r="AV46" s="21">
         <v>19.12</v>
       </c>
-      <c r="AW46" s="23">
+      <c r="AW46" s="21">
         <v>18.559999999999999</v>
       </c>
-      <c r="AX46" s="23">
+      <c r="AX46" s="21">
         <v>25.58</v>
       </c>
-      <c r="AY46" s="23">
+      <c r="AY46" s="21">
         <v>24.39</v>
       </c>
     </row>
     <row r="47" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G47" s="22">
+      <c r="G47" s="20">
         <v>3</v>
       </c>
       <c r="H47" t="s">
@@ -6812,69 +6959,69 @@
       <c r="I47">
         <v>21.45</v>
       </c>
-      <c r="AB47" s="12">
+      <c r="AB47" s="11">
         <v>24.21</v>
       </c>
-      <c r="AC47" s="13">
+      <c r="AC47" s="12">
         <v>20</v>
       </c>
-      <c r="AD47" s="13">
+      <c r="AD47" s="12">
         <v>23.31</v>
       </c>
-      <c r="AE47" s="14">
+      <c r="AE47" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG47" s="12">
+      <c r="AG47" s="11">
         <v>24.21</v>
       </c>
-      <c r="AH47" s="20">
+      <c r="AH47" s="18">
         <v>20</v>
       </c>
-      <c r="AI47" s="20">
+      <c r="AI47" s="18">
         <v>23.31</v>
       </c>
-      <c r="AJ47" s="14">
+      <c r="AJ47" s="13">
         <v>21.45</v>
       </c>
-      <c r="AL47" s="12">
+      <c r="AL47" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM47" s="13">
+      <c r="AM47" s="12">
         <v>20</v>
       </c>
-      <c r="AN47" s="13">
+      <c r="AN47" s="12">
         <v>23.31</v>
       </c>
-      <c r="AO47" s="14">
+      <c r="AO47" s="13">
         <v>21.45</v>
       </c>
-      <c r="AQ47" s="12">
+      <c r="AQ47" s="11">
         <v>24.21</v>
       </c>
-      <c r="AR47" s="20">
+      <c r="AR47" s="18">
         <v>20</v>
       </c>
-      <c r="AS47" s="20">
+      <c r="AS47" s="18">
         <v>23.31</v>
       </c>
-      <c r="AT47" s="14">
+      <c r="AT47" s="13">
         <v>21.45</v>
       </c>
-      <c r="AV47" s="23">
+      <c r="AV47" s="21">
         <v>24.21</v>
       </c>
-      <c r="AW47" s="23">
+      <c r="AW47" s="21">
         <v>20</v>
       </c>
-      <c r="AX47" s="23">
+      <c r="AX47" s="21">
         <v>23.31</v>
       </c>
-      <c r="AY47" s="23">
+      <c r="AY47" s="21">
         <v>21.45</v>
       </c>
     </row>
     <row r="48" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G48" s="22">
+      <c r="G48" s="20">
         <v>5</v>
       </c>
       <c r="H48" t="s">
@@ -6883,69 +7030,69 @@
       <c r="I48">
         <v>32.74</v>
       </c>
-      <c r="AB48" s="12">
+      <c r="AB48" s="11">
         <v>26.88</v>
       </c>
-      <c r="AC48" s="13">
+      <c r="AC48" s="12">
         <v>19.87</v>
       </c>
-      <c r="AD48" s="13">
+      <c r="AD48" s="12">
         <v>18.989999999999998</v>
       </c>
-      <c r="AE48" s="14">
+      <c r="AE48" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG48" s="12">
+      <c r="AG48" s="11">
         <v>26.88</v>
       </c>
-      <c r="AH48" s="20">
+      <c r="AH48" s="18">
         <v>19.87</v>
       </c>
-      <c r="AI48" s="20">
+      <c r="AI48" s="18">
         <v>18.989999999999998</v>
       </c>
-      <c r="AJ48" s="14">
+      <c r="AJ48" s="13">
         <v>32.74</v>
       </c>
-      <c r="AL48" s="12">
+      <c r="AL48" s="11">
         <v>26.88</v>
       </c>
-      <c r="AM48" s="13">
+      <c r="AM48" s="12">
         <v>19.87</v>
       </c>
-      <c r="AN48" s="13">
+      <c r="AN48" s="12">
         <v>18.989999999999998</v>
       </c>
-      <c r="AO48" s="14">
+      <c r="AO48" s="13">
         <v>32.74</v>
       </c>
-      <c r="AQ48" s="15">
+      <c r="AQ48" s="14">
         <v>26.88</v>
       </c>
-      <c r="AR48" s="21">
+      <c r="AR48" s="19">
         <v>19.87</v>
       </c>
-      <c r="AS48" s="21">
+      <c r="AS48" s="19">
         <v>18.989999999999998</v>
       </c>
-      <c r="AT48" s="17">
+      <c r="AT48" s="16">
         <v>32.74</v>
       </c>
-      <c r="AV48" s="23">
+      <c r="AV48" s="21">
         <v>26.88</v>
       </c>
-      <c r="AW48" s="23">
+      <c r="AW48" s="21">
         <v>19.87</v>
       </c>
-      <c r="AX48" s="23">
+      <c r="AX48" s="21">
         <v>18.989999999999998</v>
       </c>
-      <c r="AY48" s="23">
+      <c r="AY48" s="21">
         <v>32.74</v>
       </c>
     </row>
     <row r="49" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G49" s="22">
+      <c r="G49" s="20">
         <v>12</v>
       </c>
       <c r="H49" t="s">
@@ -6954,69 +7101,69 @@
       <c r="I49">
         <v>24.21</v>
       </c>
-      <c r="AB49" s="12">
+      <c r="AB49" s="11">
         <v>21.6</v>
       </c>
-      <c r="AC49" s="13">
+      <c r="AC49" s="12">
         <v>22.09</v>
       </c>
-      <c r="AD49" s="13">
+      <c r="AD49" s="12">
         <v>23.09</v>
       </c>
-      <c r="AE49" s="14">
+      <c r="AE49" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG49" s="12">
+      <c r="AG49" s="11">
         <v>21.6</v>
       </c>
-      <c r="AH49" s="20">
+      <c r="AH49" s="18">
         <v>22.09</v>
       </c>
-      <c r="AI49" s="20">
+      <c r="AI49" s="18">
         <v>23.09</v>
       </c>
-      <c r="AJ49" s="14">
+      <c r="AJ49" s="13">
         <v>24.21</v>
       </c>
-      <c r="AL49" s="9">
+      <c r="AL49" s="8">
         <v>21.6</v>
       </c>
-      <c r="AM49" s="10">
+      <c r="AM49" s="9">
         <v>22.09</v>
       </c>
-      <c r="AN49" s="10">
+      <c r="AN49" s="9">
         <v>23.09</v>
       </c>
-      <c r="AO49" s="11">
+      <c r="AO49" s="10">
         <v>24.21</v>
       </c>
-      <c r="AQ49" s="12">
+      <c r="AQ49" s="11">
         <v>21.6</v>
       </c>
-      <c r="AR49" s="20">
+      <c r="AR49" s="18">
         <v>22.09</v>
       </c>
-      <c r="AS49" s="20">
+      <c r="AS49" s="18">
         <v>23.09</v>
       </c>
-      <c r="AT49" s="14">
+      <c r="AT49" s="13">
         <v>24.21</v>
       </c>
-      <c r="AV49" s="23">
+      <c r="AV49" s="21">
         <v>21.6</v>
       </c>
-      <c r="AW49" s="23">
+      <c r="AW49" s="21">
         <v>22.09</v>
       </c>
-      <c r="AX49" s="23">
+      <c r="AX49" s="21">
         <v>23.09</v>
       </c>
-      <c r="AY49" s="23">
+      <c r="AY49" s="21">
         <v>24.21</v>
       </c>
     </row>
     <row r="50" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G50" s="22">
+      <c r="G50" s="20">
         <v>16</v>
       </c>
       <c r="H50" t="s">
@@ -7025,69 +7172,69 @@
       <c r="I50">
         <v>25.67</v>
       </c>
-      <c r="AB50" s="12">
+      <c r="AB50" s="11">
         <v>23.4</v>
       </c>
-      <c r="AC50" s="13">
+      <c r="AC50" s="12">
         <v>17.62</v>
       </c>
-      <c r="AD50" s="13">
+      <c r="AD50" s="12">
         <v>23.81</v>
       </c>
-      <c r="AE50" s="14">
+      <c r="AE50" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG50" s="12">
+      <c r="AG50" s="11">
         <v>23.4</v>
       </c>
-      <c r="AH50" s="20">
+      <c r="AH50" s="18">
         <v>17.62</v>
       </c>
-      <c r="AI50" s="20">
+      <c r="AI50" s="18">
         <v>23.81</v>
       </c>
-      <c r="AJ50" s="14">
+      <c r="AJ50" s="13">
         <v>25.67</v>
       </c>
-      <c r="AL50" s="12">
+      <c r="AL50" s="11">
         <v>23.4</v>
       </c>
-      <c r="AM50" s="13">
+      <c r="AM50" s="12">
         <v>17.62</v>
       </c>
-      <c r="AN50" s="13">
+      <c r="AN50" s="12">
         <v>23.81</v>
       </c>
-      <c r="AO50" s="14">
+      <c r="AO50" s="13">
         <v>25.67</v>
       </c>
-      <c r="AQ50" s="12">
+      <c r="AQ50" s="11">
         <v>23.4</v>
       </c>
-      <c r="AR50" s="20">
+      <c r="AR50" s="18">
         <v>17.62</v>
       </c>
-      <c r="AS50" s="20">
+      <c r="AS50" s="18">
         <v>23.81</v>
       </c>
-      <c r="AT50" s="14">
+      <c r="AT50" s="13">
         <v>25.67</v>
       </c>
-      <c r="AV50" s="23">
+      <c r="AV50" s="21">
         <v>23.4</v>
       </c>
-      <c r="AW50" s="23">
+      <c r="AW50" s="21">
         <v>17.62</v>
       </c>
-      <c r="AX50" s="23">
+      <c r="AX50" s="21">
         <v>23.81</v>
       </c>
-      <c r="AY50" s="23">
+      <c r="AY50" s="21">
         <v>25.67</v>
       </c>
     </row>
     <row r="51" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G51" s="22">
+      <c r="G51" s="20">
         <v>20</v>
       </c>
       <c r="H51" t="s">
@@ -7096,64 +7243,64 @@
       <c r="I51">
         <v>23.42</v>
       </c>
-      <c r="AB51" s="15">
+      <c r="AB51" s="14">
         <v>23.35</v>
       </c>
-      <c r="AC51" s="16">
+      <c r="AC51" s="15">
         <v>21.72</v>
       </c>
-      <c r="AD51" s="16">
+      <c r="AD51" s="15">
         <v>21.27</v>
       </c>
-      <c r="AE51" s="17">
+      <c r="AE51" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG51" s="15">
+      <c r="AG51" s="14">
         <v>23.35</v>
       </c>
-      <c r="AH51" s="21">
+      <c r="AH51" s="19">
         <v>21.72</v>
       </c>
-      <c r="AI51" s="21">
+      <c r="AI51" s="19">
         <v>21.27</v>
       </c>
-      <c r="AJ51" s="17">
+      <c r="AJ51" s="16">
         <v>23.42</v>
       </c>
-      <c r="AL51" s="15">
+      <c r="AL51" s="14">
         <v>23.35</v>
       </c>
-      <c r="AM51" s="16">
+      <c r="AM51" s="15">
         <v>21.72</v>
       </c>
-      <c r="AN51" s="16">
+      <c r="AN51" s="15">
         <v>21.27</v>
       </c>
-      <c r="AO51" s="17">
+      <c r="AO51" s="16">
         <v>23.42</v>
       </c>
-      <c r="AQ51" s="15">
+      <c r="AQ51" s="14">
         <v>23.35</v>
       </c>
-      <c r="AR51" s="21">
+      <c r="AR51" s="19">
         <v>21.72</v>
       </c>
-      <c r="AS51" s="21">
+      <c r="AS51" s="19">
         <v>21.27</v>
       </c>
-      <c r="AT51" s="17">
+      <c r="AT51" s="16">
         <v>23.42</v>
       </c>
-      <c r="AV51" s="23">
+      <c r="AV51" s="21">
         <v>23.35</v>
       </c>
-      <c r="AW51" s="23">
+      <c r="AW51" s="21">
         <v>21.72</v>
       </c>
-      <c r="AX51" s="23">
+      <c r="AX51" s="21">
         <v>21.27</v>
       </c>
-      <c r="AY51" s="23">
+      <c r="AY51" s="21">
         <v>23.42</v>
       </c>
     </row>
@@ -7162,6 +7309,11 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7172,11 +7324,6 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7200,192 +7347,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="G2" s="101" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="G2" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="L2" s="101" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="L2" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="Q2" s="102" t="s">
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="Q2" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="V2" s="82" t="s">
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="V2" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="45"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="40"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="45"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="40"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="46"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="41"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="45"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="40"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="45"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="40"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="46"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="41"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7419,19 +7566,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58" t="s">
+      <c r="U2" s="52"/>
+      <c r="V2" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59" t="s">
+      <c r="W2" s="52"/>
+      <c r="X2" s="53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7448,50 +7595,50 @@
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
     </row>
     <row r="4" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="61" t="s">
+      <c r="U4" s="53"/>
+      <c r="V4" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="W4" s="58"/>
-      <c r="X4" s="60">
+      <c r="W4" s="52"/>
+      <c r="X4" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59" t="s">
+      <c r="S5" s="53"/>
+      <c r="T5" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59" t="s">
+      <c r="U5" s="53"/>
+      <c r="V5" s="53" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="59" t="s">
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7511,1067 +7658,1222 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="13" style="18" customWidth="1"/>
+    <col min="2" max="5" width="13" style="12" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="13" style="18" customWidth="1"/>
+    <col min="12" max="15" width="13" style="12" customWidth="1"/>
     <col min="16" max="16" width="5.42578125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="L2" s="111" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="L2" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
     </row>
     <row r="3" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="101" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="114" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="P3" s="110"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="51">
+      <c r="A4" s="37"/>
+      <c r="B4" s="46">
         <v>4.5613999999999999</v>
       </c>
-      <c r="C4" s="112">
+      <c r="C4" s="79">
         <v>5.4531999999999998</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <v>1.8773</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="80">
         <v>9.8256999999999994</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="82">
         <v>6.5846</v>
       </c>
-      <c r="H4" s="116">
+      <c r="H4" s="83">
         <v>6.5846</v>
       </c>
-      <c r="I4" s="116">
+      <c r="I4" s="83">
         <v>6.5846</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="84">
         <v>6.5846</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="43">
         <v>4.7488999999999999</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="43">
         <v>7.8491999999999997</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="43">
         <v>6.5789</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="43">
         <v>7.1616</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="51">
+      <c r="A5" s="37"/>
+      <c r="B5" s="46">
         <v>6.6593</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="79">
         <v>8.9207999999999998</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <v>6.1883999999999997</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="80">
         <v>8.9987999999999992</v>
       </c>
-      <c r="G5" s="118">
+      <c r="G5" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="44">
         <v>4.7488999999999999</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="44">
         <v>7.8491999999999997</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="44">
         <v>6.5789</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="44">
         <v>7.1616</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="51">
+      <c r="A6" s="37"/>
+      <c r="B6" s="46">
         <v>5.6426999999999996</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="79">
         <v>8.3489000000000004</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="46">
         <v>6.8029000000000002</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="80">
         <v>5.4112</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="118">
+      <c r="F6" s="26"/>
+      <c r="G6" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="40">
         <v>6.5846</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="49">
+      <c r="K6" s="26"/>
+      <c r="L6" s="44">
         <v>4.7488999999999999</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="44">
         <v>7.8491999999999997</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="44">
         <v>6.5789</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="44">
         <v>7.1616</v>
       </c>
-      <c r="P6" s="29"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="51">
+      <c r="A7" s="37"/>
+      <c r="B7" s="46">
         <v>6.4394</v>
       </c>
-      <c r="C7" s="112">
+      <c r="C7" s="79">
         <v>8.3175000000000008</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="46">
         <v>9.4535</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="80">
         <v>4.9396000000000004</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="44">
         <v>4.7488999999999999</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="44">
         <v>7.8491999999999997</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="44">
         <v>6.5789</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="44">
         <v>7.1616</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="51">
+      <c r="A8" s="37"/>
+      <c r="B8" s="46">
         <v>4.8635000000000002</v>
       </c>
-      <c r="C8" s="112">
+      <c r="C8" s="79">
         <v>9.7848000000000006</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="46">
         <v>8.7311999999999994</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="80">
         <v>8.6486000000000001</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="44">
         <v>4.7488999999999999</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="44">
         <v>7.8491999999999997</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="44">
         <v>6.5789</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="44">
         <v>7.1616</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="51">
+      <c r="A9" s="37"/>
+      <c r="B9" s="46">
         <v>0.32679999999999998</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="79">
         <v>6.2697000000000003</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="46">
         <v>6.4198000000000004</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="80">
         <v>5.1459000000000001</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="38">
         <v>6.5846</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="39">
         <v>6.5846</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="39">
         <v>6.5846</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="41">
         <v>6.5846</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="45">
         <v>4.7488999999999999</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="45">
         <v>7.8491999999999997</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="45">
         <v>6.5789</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="45">
         <v>7.1616</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="L12" s="111" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="L12" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
     </row>
     <row r="13" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="101" t="s">
+      <c r="F13" s="78"/>
+      <c r="G13" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="114" t="s">
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="N13" s="114" t="s">
+      <c r="N13" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="O13" s="114" t="s">
+      <c r="O13" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="101" t="s">
+      <c r="P13" s="78"/>
+      <c r="Q13" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51">
+      <c r="B14" s="46">
         <v>4.5613999999999999</v>
       </c>
-      <c r="C14" s="112">
+      <c r="C14" s="79">
         <v>5.4531999999999998</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="46">
         <v>1.8773</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="80">
         <v>9.8256999999999994</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="82">
         <v>6.5846</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14" s="83">
         <v>6.5846</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="83">
         <v>6.5846</v>
       </c>
-      <c r="J14" s="117">
+      <c r="J14" s="84">
         <v>6.5846</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="43">
         <f>L4-G14</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="43">
         <f t="shared" ref="M14:O14" si="0">M4-H14</f>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="43">
         <f t="shared" si="0"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="43">
         <f t="shared" si="0"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="113"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="80"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51">
+      <c r="B15" s="46">
         <v>6.6593</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="79">
         <v>8.9207999999999998</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="46">
         <v>6.1883999999999997</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="80">
         <v>8.9987999999999992</v>
       </c>
-      <c r="G15" s="118">
+      <c r="G15" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="44">
         <f t="shared" ref="L15:O15" si="1">L5-G15</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="44">
         <f t="shared" si="1"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="44">
         <f t="shared" si="1"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="113"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="80"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51">
+      <c r="B16" s="46">
         <v>5.6426999999999996</v>
       </c>
-      <c r="C16" s="112">
+      <c r="C16" s="79">
         <v>8.3489000000000004</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="46">
         <v>6.8029000000000002</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="80">
         <v>5.4112</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="40">
         <v>6.5846</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="44">
         <f t="shared" ref="L16:O16" si="2">L6-G16</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="44">
         <f t="shared" si="2"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="44">
         <f t="shared" si="2"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O16" s="49">
+      <c r="O16" s="44">
         <f t="shared" si="2"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="113"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="80"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="51">
+      <c r="B17" s="46">
         <v>6.4394</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="79">
         <v>8.3175000000000008</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="46">
         <v>9.4535</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="80">
         <v>4.9396000000000004</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="44">
         <f t="shared" ref="L17:O17" si="3">L7-G17</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="44">
         <f t="shared" si="3"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="44">
         <f t="shared" si="3"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="44">
         <f t="shared" si="3"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="113"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="80"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="51">
+      <c r="B18" s="46">
         <v>4.8635000000000002</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="79">
         <v>9.7848000000000006</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="46">
         <v>8.7311999999999994</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="80">
         <v>8.6486000000000001</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="44">
         <f t="shared" ref="L18:O18" si="4">L8-G18</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="44">
         <f t="shared" si="4"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="44">
         <f t="shared" si="4"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="44">
         <f t="shared" si="4"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="113"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="80"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="51">
+      <c r="B19" s="46">
         <v>0.32679999999999998</v>
       </c>
-      <c r="C19" s="112">
+      <c r="C19" s="79">
         <v>6.2697000000000003</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="46">
         <v>6.4198000000000004</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="80">
         <v>5.1459000000000001</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="38">
         <v>6.5846</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="39">
         <v>6.5846</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="39">
         <v>6.5846</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="41">
         <v>6.5846</v>
       </c>
-      <c r="L19" s="50">
+      <c r="L19" s="45">
         <f t="shared" ref="L19:O19" si="5">L9-G19</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="45">
         <f t="shared" si="5"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N19" s="50">
+      <c r="N19" s="45">
         <f t="shared" si="5"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="45">
         <f t="shared" si="5"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="113"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="80"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="L22" s="111" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="L22" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
     </row>
     <row r="23" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="101" t="s">
+      <c r="F23" s="78"/>
+      <c r="G23" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="114" t="s">
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="N23" s="114" t="s">
+      <c r="N23" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="114" t="s">
+      <c r="O23" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="101" t="s">
+      <c r="P23" s="78"/>
+      <c r="Q23" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="51">
+      <c r="B24" s="46">
         <v>4.5613999999999999</v>
       </c>
-      <c r="C24" s="112">
+      <c r="C24" s="79">
         <v>5.4531999999999998</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="46">
         <v>1.8773</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="80">
         <v>9.8256999999999994</v>
       </c>
-      <c r="G24" s="115">
+      <c r="G24" s="82">
         <v>6.5846</v>
       </c>
-      <c r="H24" s="116">
+      <c r="H24" s="83">
         <v>6.5846</v>
       </c>
-      <c r="I24" s="116">
+      <c r="I24" s="83">
         <v>6.5846</v>
       </c>
-      <c r="J24" s="117">
+      <c r="J24" s="84">
         <v>6.5846</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="43">
         <f>L14</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="43">
         <f t="shared" ref="M24:O24" si="6">M14</f>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="43">
         <f t="shared" si="6"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="43">
         <f t="shared" si="6"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="46">
         <f>B24-(G24+L24)</f>
         <v>-0.1875</v>
       </c>
-      <c r="R24" s="112">
+      <c r="R24" s="79">
         <f t="shared" ref="R24:R29" si="7">C24-SUM(H24,M24)</f>
         <v>-2.3959999999999999</v>
       </c>
-      <c r="S24" s="51">
+      <c r="S24" s="46">
         <f t="shared" ref="S24:S29" si="8">D24-SUM(I24,N24)</f>
         <v>-4.7016</v>
       </c>
-      <c r="T24" s="113">
+      <c r="T24" s="80">
         <f t="shared" ref="T24:T29" si="9">E24-SUM(J24,O24)</f>
         <v>2.6640999999999995</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="51">
+      <c r="B25" s="46">
         <v>6.6593</v>
       </c>
-      <c r="C25" s="112">
+      <c r="C25" s="79">
         <v>8.9207999999999998</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="46">
         <v>6.1883999999999997</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="80">
         <v>8.9987999999999992</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="44">
         <f t="shared" ref="L25:O25" si="10">L15</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="44">
         <f t="shared" si="10"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25" s="44">
         <f t="shared" si="10"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O25" s="49">
+      <c r="O25" s="44">
         <f t="shared" si="10"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="46">
         <f t="shared" ref="Q25:Q29" si="11">B25-SUM(G25,L25)</f>
         <v>1.9104000000000001</v>
       </c>
-      <c r="R25" s="112">
+      <c r="R25" s="79">
         <f t="shared" si="7"/>
         <v>1.0716000000000001</v>
       </c>
-      <c r="S25" s="51">
+      <c r="S25" s="46">
         <f t="shared" si="8"/>
         <v>-0.39050000000000029</v>
       </c>
-      <c r="T25" s="113">
+      <c r="T25" s="80">
         <f t="shared" si="9"/>
         <v>1.8371999999999993</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="51">
+      <c r="B26" s="46">
         <v>5.6426999999999996</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="79">
         <v>8.3489000000000004</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="46">
         <v>6.8029000000000002</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="80">
         <v>5.4112</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="118">
+      <c r="G26" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="40">
         <v>6.5846</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="44">
         <f t="shared" ref="L26:O26" si="12">L16</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="44">
         <f t="shared" si="12"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N26" s="49">
+      <c r="N26" s="44">
         <f t="shared" si="12"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O26" s="49">
+      <c r="O26" s="44">
         <f t="shared" si="12"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="P26" s="29" t="s">
+      <c r="P26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="46">
         <f t="shared" si="11"/>
         <v>0.89379999999999971</v>
       </c>
-      <c r="R26" s="112">
+      <c r="R26" s="79">
         <f t="shared" si="7"/>
         <v>0.4997000000000007</v>
       </c>
-      <c r="S26" s="51">
+      <c r="S26" s="46">
         <f t="shared" si="8"/>
         <v>0.2240000000000002</v>
       </c>
-      <c r="T26" s="113">
+      <c r="T26" s="80">
         <f t="shared" si="9"/>
         <v>-1.7504</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="51">
+      <c r="B27" s="46">
         <v>6.4394</v>
       </c>
-      <c r="C27" s="112">
+      <c r="C27" s="79">
         <v>8.3175000000000008</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="46">
         <v>9.4535</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="80">
         <v>4.9396000000000004</v>
       </c>
-      <c r="G27" s="118">
+      <c r="G27" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="44">
         <f t="shared" ref="L27:O27" si="13">L17</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="44">
         <f t="shared" si="13"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="44">
         <f t="shared" si="13"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="44">
         <f t="shared" si="13"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="46">
         <f t="shared" si="11"/>
         <v>1.6905000000000001</v>
       </c>
-      <c r="R27" s="112">
+      <c r="R27" s="79">
         <f t="shared" si="7"/>
         <v>0.46830000000000105</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="46">
         <f t="shared" si="8"/>
         <v>2.8746</v>
       </c>
-      <c r="T27" s="113">
+      <c r="T27" s="80">
         <f t="shared" si="9"/>
         <v>-2.2219999999999995</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="51">
+      <c r="B28" s="46">
         <v>4.8635000000000002</v>
       </c>
-      <c r="C28" s="112">
+      <c r="C28" s="79">
         <v>9.7848000000000006</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="46">
         <v>8.7311999999999994</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="80">
         <v>8.6486000000000001</v>
       </c>
-      <c r="G28" s="118">
+      <c r="G28" s="85">
         <v>6.5846</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="12">
         <v>6.5846</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="12">
         <v>6.5846</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="40">
         <v>6.5846</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="44">
         <f t="shared" ref="L28:O28" si="14">L18</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="44">
         <f t="shared" si="14"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N28" s="49">
+      <c r="N28" s="44">
         <f t="shared" si="14"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O28" s="49">
+      <c r="O28" s="44">
         <f t="shared" si="14"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="46">
         <f t="shared" si="11"/>
         <v>0.11460000000000026</v>
       </c>
-      <c r="R28" s="112">
+      <c r="R28" s="79">
         <f t="shared" si="7"/>
         <v>1.9356000000000009</v>
       </c>
-      <c r="S28" s="51">
+      <c r="S28" s="46">
         <f t="shared" si="8"/>
         <v>2.1522999999999994</v>
       </c>
-      <c r="T28" s="113">
+      <c r="T28" s="80">
         <f t="shared" si="9"/>
         <v>1.4870000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="51">
+      <c r="B29" s="46">
         <v>0.32679999999999998</v>
       </c>
-      <c r="C29" s="112">
+      <c r="C29" s="79">
         <v>6.2697000000000003</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="46">
         <v>6.4198000000000004</v>
       </c>
-      <c r="E29" s="113">
+      <c r="E29" s="80">
         <v>5.1459000000000001</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="38">
         <v>6.5846</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="39">
         <v>6.5846</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="39">
         <v>6.5846</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="41">
         <v>6.5846</v>
       </c>
-      <c r="L29" s="50">
+      <c r="L29" s="45">
         <f t="shared" ref="L29:O29" si="15">L19</f>
         <v>-1.8357000000000001</v>
       </c>
-      <c r="M29" s="50">
+      <c r="M29" s="45">
         <f t="shared" si="15"/>
         <v>1.2645999999999997</v>
       </c>
-      <c r="N29" s="50">
+      <c r="N29" s="45">
         <f t="shared" si="15"/>
         <v>-5.7000000000000384E-3</v>
       </c>
-      <c r="O29" s="50">
+      <c r="O29" s="45">
         <f t="shared" si="15"/>
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="46">
         <f t="shared" si="11"/>
         <v>-4.4221000000000004</v>
       </c>
-      <c r="R29" s="112">
+      <c r="R29" s="79">
         <f t="shared" si="7"/>
         <v>-1.5794999999999995</v>
       </c>
-      <c r="S29" s="51">
+      <c r="S29" s="46">
         <f t="shared" si="8"/>
         <v>-0.15909999999999958</v>
       </c>
-      <c r="T29" s="113">
+      <c r="T29" s="80">
         <f t="shared" si="9"/>
         <v>-2.0156999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:O12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="L12:O12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE1C128-75F5-49F2-82F5-F651E005D718}">
+  <dimension ref="B3:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="5.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G3" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="106"/>
+      <c r="K3" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="106"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="114"/>
+      <c r="J5" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
+      <c r="N5" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="118"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="119"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="120"/>
+    </row>
+    <row r="8" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="42"/>
+      <c r="J8" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="116"/>
+      <c r="L8" s="117"/>
+      <c r="N8" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="118"/>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="119"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="115"/>
+      <c r="J10" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
